--- a/CompareOutput/test.xlsx
+++ b/CompareOutput/test.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DBD" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Pattern" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Pattern-ALL" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="DBD-ALL" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="tpch_10g" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="tpch_10g-ALL" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBD" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pattern" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pattern-ALL" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DBD-ALL" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tpch_1g" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tpch_1g-ALL" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="schema1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="schema1-ALL" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
   <si>
     <t>Comparison - Projections of Vertica Database Design x Own projections</t>
   </si>
@@ -61,7 +63,10 @@
     <t>All TPC-H queries</t>
   </si>
   <si>
-    <t>tpch_10g</t>
+    <t>tpch_1g</t>
+  </si>
+  <si>
+    <t>schema1</t>
   </si>
   <si>
     <t>OVERVIEW</t>
@@ -127,6 +132,378 @@
     <t>path_line</t>
   </si>
   <si>
+    <t>monitoring_tpch_query_1</t>
+  </si>
+  <si>
+    <t>monitoring_tpch_query_4</t>
+  </si>
+  <si>
+    <t>monitoring_tpch_query_5</t>
+  </si>
+  <si>
+    <t>|  Output Only: 1 tuples</t>
+  </si>
+  <si>
+    <t>00:00:00.462258</t>
+  </si>
+  <si>
+    <t>11638492</t>
+  </si>
+  <si>
+    <t>26478031</t>
+  </si>
+  <si>
+    <t>| | | +---&gt; STORAGE ACCESS for lineitem [Cost: 46K, Rows: 6M] (PATH ID: 3)</t>
+  </si>
+  <si>
+    <t>00:00:00.000061</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>+-SELECT  LIMIT 1 [Cost: 59K, Rows: 1] (PATH ID: 0)</t>
+  </si>
+  <si>
+    <t>00:00:00.000169</t>
+  </si>
+  <si>
+    <t>1130882</t>
+  </si>
+  <si>
+    <t>| +---&gt; SORT [TOPK] [Cost: 51K, Rows: 25] (PATH ID: 1)</t>
+  </si>
+  <si>
+    <t>| | |      Aggregates: sum(lineitem.L_QUANTITY), sum(lineitem.L_EXTENDEDPRICE), sum((lineitem.L_EXTENDEDPRICE * (1 - lineitem.L_DISCOUNT))), sum(((lineitem.L_EXTENDEDPRICE * (1 - lineitem.L_DISCOUNT)) * (1 + lineitem.L_TAX))), sum_float(lineitem.L_QUANTITY), count(lineitem.L_QUANTITY), sum_float(lineitem.L_EXTENDEDPRICE), count(lineitem.L_EXTENDEDPRICE), sum_float(lineitem.L_DISCOUNT), count(lineitem.L_DISCOUNT), count(*)</t>
+  </si>
+  <si>
+    <t>| | | |      Filter: ((orders.O_ORDERDATE &gt;= /1996-05-01/::date) AND (orders.O_ORDERDATE &lt; /1996-08-01 00:00:00/::timestamp))</t>
+  </si>
+  <si>
+    <t>| |      Order: sum((lineitem.L_EXTENDEDPRICE * (1 - lineitem.L_DISCOUNT))) DESC</t>
+  </si>
+  <si>
+    <t>| | | |      Filter: (lineitem.L_SHIPDATE &lt;= /1998-08-17 00:00:00/::timestamp)</t>
+  </si>
+  <si>
+    <t>00:00:00.873282</t>
+  </si>
+  <si>
+    <t>6372114</t>
+  </si>
+  <si>
+    <t>| | +---&gt; JOIN HASH [Semi] [Cost: 59K, Rows: 26K] (PATH ID: 3)</t>
+  </si>
+  <si>
+    <t>| |      Output Only: 1 tuples</t>
+  </si>
+  <si>
+    <t>| | | |      Projection: DBD.LINEITEM_DBD_5_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | |      Join Cond: (VAL(1) = orders.O_ORDERKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.099468</t>
+  </si>
+  <si>
+    <t>252018200</t>
+  </si>
+  <si>
+    <t>| | +---&gt; GROUPBY HASH (LOCAL RESEGMENT GROUPS) [Cost: 51K, Rows: 25] (PATH ID: 2)</t>
+  </si>
+  <si>
+    <t>| | |      Group By: lineitem.L_LINESTATUS, lineitem.L_RETURNFLAG</t>
+  </si>
+  <si>
+    <t>00:00:00.026178</t>
+  </si>
+  <si>
+    <t>2128920</t>
+  </si>
+  <si>
+    <t>1048110</t>
+  </si>
+  <si>
+    <t>| | | +-- Outer -&gt; STORAGE ACCESS for orders [Cost: 7K, Rows: 53K] (PATH ID: 4)</t>
+  </si>
+  <si>
+    <t>| | |      Aggregates: sum((lineitem.L_EXTENDEDPRICE * (1 - lineitem.L_DISCOUNT)))</t>
+  </si>
+  <si>
+    <t>00:00:00.45968</t>
+  </si>
+  <si>
+    <t>971000</t>
+  </si>
+  <si>
+    <t>| | +---&gt; GROUPBY PIPELINED [Cost: 54K, Rows: 3] (PATH ID: 2)</t>
+  </si>
+  <si>
+    <t>| | | | |      Materialize: lineitem.L_COMMITDATE, lineitem.L_RECEIPTDATE, lineitem.L_ORDERKEY</t>
+  </si>
+  <si>
+    <t>| | |      Group By: nation.N_NAME</t>
+  </si>
+  <si>
+    <t>00:00:00.005034</t>
+  </si>
+  <si>
+    <t>1127993</t>
+  </si>
+  <si>
+    <t>| +---&gt; SORT [TOPK] [Cost: 54K, Rows: 3] (PATH ID: 1)</t>
+  </si>
+  <si>
+    <t>| | | |      Runtime Filter: (SIP1(HashJoin): orders.O_ORDERKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.22481</t>
+  </si>
+  <si>
+    <t>12279391</t>
+  </si>
+  <si>
+    <t>| | | +---&gt; JOIN HASH [Cost: 51K, Rows: 7K] (PATH ID: 3)</t>
+  </si>
+  <si>
+    <t>00:00:00.000113</t>
+  </si>
+  <si>
+    <t>556154</t>
+  </si>
+  <si>
+    <t>+-SELECT  LIMIT 1 [Cost: 54K, Rows: 1] (PATH ID: 0)</t>
+  </si>
+  <si>
+    <t>00:00:00.848076</t>
+  </si>
+  <si>
+    <t>3663854</t>
+  </si>
+  <si>
+    <t>34052907</t>
+  </si>
+  <si>
+    <t>| | | | +---&gt; STORAGE ACCESS for lineitem [Cost: 48K, Rows: 2M] (PATH ID: 6)</t>
+  </si>
+  <si>
+    <t>| | | |      Join Cond: (nation.N_REGIONKEY = region.R_REGIONKEY)</t>
+  </si>
+  <si>
+    <t>| | | |      Materialize: lineitem.L_LINESTATUS, lineitem.L_RETURNFLAG, lineitem.L_TAX, lineitem.L_DISCOUNT, lineitem.L_QUANTITY, lineitem.L_EXTENDEDPRICE</t>
+  </si>
+  <si>
+    <t>| | | |      Projection: DBD.ORDERS_DBD_8_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | | |      Materialize at Output: lineitem.L_EXTENDEDPRICE, lineitem.L_DISCOUNT</t>
+  </si>
+  <si>
+    <t>| |      Order: lineitem.L_RETURNFLAG ASC, lineitem.L_LINESTATUS ASC</t>
+  </si>
+  <si>
+    <t>| | |      Materialize at Output: orders.O_ORDERPRIORITY</t>
+  </si>
+  <si>
+    <t>00:00:00.223252</t>
+  </si>
+  <si>
+    <t>8792339</t>
+  </si>
+  <si>
+    <t>| | | | +-- Outer -&gt; JOIN HASH [Cost: 39K, Rows: 36K] (PATH ID: 4)</t>
+  </si>
+  <si>
+    <t>| | | | |      Filter: (lineitem.L_COMMITDATE &lt; lineitem.L_RECEIPTDATE)</t>
+  </si>
+  <si>
+    <t>| | | | |      Join Cond: (customer.C_NATIONKEY = supplier.S_NATIONKEY) AND (lineitem.L_SUPPKEY = supplier.S_SUPPKEY)</t>
+  </si>
+  <si>
+    <t>| | | | |      Projection: DBD.LINEITEM_DBD_5_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | | | |      Materialize at Input: lineitem.L_SUPPKEY, supplier.S_NATIONKEY, supplier.S_SUPPKEY</t>
+  </si>
+  <si>
+    <t>| | | |      Materialize: orders.O_ORDERKEY</t>
+  </si>
+  <si>
+    <t>00:00:00.198363</t>
+  </si>
+  <si>
+    <t>8822825</t>
+  </si>
+  <si>
+    <t>| | | | | +-- Outer -&gt; JOIN HASH [Cost: 26K, Rows: 909K] (PATH ID: 5)</t>
+  </si>
+  <si>
+    <t>| |      Group By: orders.O_ORDERPRIORITY</t>
+  </si>
+  <si>
+    <t>| | | | | |      Join Cond: (lineitem.L_ORDERKEY = orders.O_ORDERKEY)</t>
+  </si>
+  <si>
+    <t>| |      Aggregates: count(*)</t>
+  </si>
+  <si>
+    <t>| | | | | |      Materialize at Input: orders.O_ORDERKEY, orders.O_CUSTKEY</t>
+  </si>
+  <si>
+    <t>00:00:00.152897</t>
+  </si>
+  <si>
+    <t>4001540</t>
+  </si>
+  <si>
+    <t>22736656</t>
+  </si>
+  <si>
+    <t>| | | | | | +-- Outer -&gt; STORAGE ACCESS for lineitem [Cost: 14K, Rows: 6M] (PATH ID: 6)</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Projection: DBD.LINEITEM_DBD_5_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Materialize: lineitem.L_ORDERKEY</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Runtime Filters: (SIP5(HashJoin): lineitem.L_ORDERKEY), (SIP3(HashJoin): lineitem.L_SUPPKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.041408</t>
+  </si>
+  <si>
+    <t>5853670</t>
+  </si>
+  <si>
+    <t>| | | | | | +-- Inner -&gt; JOIN HASH [Cost: 8K, Rows: 227K] (PATH ID: 7)</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Join Cond: (customer.C_CUSTKEY = orders.O_CUSTKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.02928</t>
+  </si>
+  <si>
+    <t>2190456</t>
+  </si>
+  <si>
+    <t>2728516</t>
+  </si>
+  <si>
+    <t>| | | | | | | +-- Outer -&gt; STORAGE ACCESS for orders [Cost: 7K, Rows: 227K] (PATH ID: 8)</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Projection: DBD.ORDERS_DBD_8_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Materialize: orders.O_CUSTKEY</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Filter: ((orders.O_ORDERDATE &gt;= /1997-01-01/::date) AND (orders.O_ORDERDATE &lt; /1998-01-01 00:00:00/::timestamp))</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Runtime Filter: (SIP6(HashJoin): orders.O_CUSTKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.003655</t>
+  </si>
+  <si>
+    <t>1058919</t>
+  </si>
+  <si>
+    <t>332388</t>
+  </si>
+  <si>
+    <t>| | | | | | | +-- Inner -&gt; STORAGE ACCESS for customer [Cost: 380, Rows: 150K] (PATH ID: 9)</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Projection: DBD.CUSTOMER_DBD_7_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Materialize: customer.C_NATIONKEY, customer.C_CUSTKEY</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Runtime Filter: (SIP2(HashJoin): customer.C_NATIONKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.001463</t>
+  </si>
+  <si>
+    <t>2704354</t>
+  </si>
+  <si>
+    <t>| | | | | +-- Inner -&gt; JOIN HASH [Cost: 77, Rows: 10K (25 RLE)] (PATH ID: 10)</t>
+  </si>
+  <si>
+    <t>| | | | | |      Join Cond: (supplier.S_NATIONKEY = nation.N_NATIONKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.001202</t>
+  </si>
+  <si>
+    <t>404719</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>| | | | | | +-- Outer -&gt; STORAGE ACCESS for supplier [Cost: 17, Rows: 10K (25 RLE)] (PATH ID: 11)</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Projection: DBD.SUPPLIER_DBD_4_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Materialize: supplier.S_NATIONKEY</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Runtime Filter: (SIP7(HashJoin): supplier.S_NATIONKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.000267</t>
+  </si>
+  <si>
+    <t>1132876</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>| | | | | | +-- Inner -&gt; STORAGE ACCESS for nation [Cost: 51, Rows: 25] (PATH ID: 12)</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Projection: DBD.NATION_DBD_1_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Materialize: nation.N_REGIONKEY, nation.N_NATIONKEY, nation.N_NAME</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Runtime Filter: (SIP1(HashJoin): nation.N_REGIONKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.000259</t>
+  </si>
+  <si>
+    <t>710727</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>| | | | +-- Inner -&gt; STORAGE ACCESS for region [Cost: 35, Rows: 1] (PATH ID: 13)</t>
+  </si>
+  <si>
+    <t>| | | | |      Projection: DBD.REGION_DBD_2_rep_my1_v1_node0001</t>
+  </si>
+  <si>
+    <t>| | | | |      Materialize: region.R_REGIONKEY</t>
+  </si>
+  <si>
+    <t>| | | | |      Filter: (region.R_NAME = /MIDDLE EAST/)</t>
+  </si>
+  <si>
     <t>start_timestamp</t>
   </si>
   <si>
@@ -136,280 +513,430 @@
     <t>statement_id</t>
   </si>
   <si>
-    <t>00:00:01.877244</t>
-  </si>
-  <si>
-    <t>30729840</t>
-  </si>
-  <si>
-    <t>| | | +---&gt; JOIN HASH [Cost: 85K, Rows: 40M (NO STATISTICS)] (PATH ID: 3)</t>
-  </si>
-  <si>
-    <t>00:00:01.493509</t>
-  </si>
-  <si>
-    <t>19944080</t>
-  </si>
-  <si>
-    <t>| | | | +-- Outer -&gt; JOIN HASH [Cost: 20K, Rows: 40M (NO STATISTICS)] (PATH ID: 4)</t>
+    <t>| | |      Materialize: lineitem.L_QUANTITY, lineitem.L_EXTENDEDPRICE, lineitem.L_DISCOUNT, lineitem.L_TAX, lineitem.L_RETURNFLAG, lineitem.L_LINESTATUS</t>
+  </si>
+  <si>
+    <t>| | | | |      Projection: tpch_1g.LINEITEM_super</t>
+  </si>
+  <si>
+    <t>| | |      Projection: tpch_1g.LINEITEM_super</t>
+  </si>
+  <si>
+    <t>| | | |      Projection: tpch_1g.ORDERS_super</t>
+  </si>
+  <si>
+    <t>00:00:00.000145</t>
+  </si>
+  <si>
+    <t>| +---&gt; SORT [TOPK] [Cost: 40K, Rows: 10K (NO STATISTICS)] (PATH ID: 1)</t>
+  </si>
+  <si>
+    <t>00:00:00.000104</t>
+  </si>
+  <si>
+    <t>+-SELECT  LIMIT 1 [Cost: 35K, Rows: 1 (NO STATISTICS)] (PATH ID: 0)</t>
+  </si>
+  <si>
+    <t>00:00:00.500887</t>
+  </si>
+  <si>
+    <t>2705590</t>
+  </si>
+  <si>
+    <t>| | | | +---&gt; STORAGE ACCESS for lineitem [Cost: 26K, Rows: 6M (NO STATISTICS)] (PATH ID: 6)</t>
+  </si>
+  <si>
+    <t>00:00:00.684707</t>
+  </si>
+  <si>
+    <t>9970332</t>
+  </si>
+  <si>
+    <t>| | +---&gt; STORAGE ACCESS for lineitem [Cost: 28K, Rows: 6M (NO STATISTICS)] (PATH ID: 3)</t>
+  </si>
+  <si>
+    <t>| |      Aggregates: sum(lineitem.L_QUANTITY), sum(lineitem.L_EXTENDEDPRICE), sum((lineitem.L_EXTENDEDPRICE * (1 - lineitem.L_DISCOUNT))), sum(((lineitem.L_EXTENDEDPRICE * (1 - lineitem.L_DISCOUNT)) * (1 + lineitem.L_TAX))), sum_float(lineitem.L_QUANTITY), count(lineitem.L_QUANTITY), sum_float(lineitem.L_EXTENDEDPRICE), count(lineitem.L_EXTENDEDPRICE), sum_float(lineitem.L_DISCOUNT), count(lineitem.L_DISCOUNT), count(*)</t>
+  </si>
+  <si>
+    <t>00:00:00.148193</t>
+  </si>
+  <si>
+    <t>252663416</t>
+  </si>
+  <si>
+    <t>| | +---&gt; GROUPBY HASH (LOCAL RESEGMENT GROUPS) [Cost: 40K, Rows: 10K (NO STATISTICS)] (PATH ID: 2)</t>
+  </si>
+  <si>
+    <t>| | |      Filter: (lineitem.L_SHIPDATE &lt;= /1998-08-17 00:00:00/::timestamp)</t>
+  </si>
+  <si>
+    <t>00:00:00.186943</t>
+  </si>
+  <si>
+    <t>368681908</t>
+  </si>
+  <si>
+    <t>| +---&gt; GROUPBY HASH (SORT OUTPUT) (LOCAL RESEGMENT GROUPS) [Cost: 41K, Rows: 10K (NO STATISTICS)] (PATH ID: 2)</t>
+  </si>
+  <si>
+    <t>00:00:00.68504</t>
+  </si>
+  <si>
+    <t>1346915323</t>
+  </si>
+  <si>
+    <t>| +---&gt; GROUPBY HASH (SORT OUTPUT) (LOCAL RESEGMENT GROUPS) [Cost: 35K, Rows: 10K (NO STATISTICS)] (PATH ID: 2)</t>
+  </si>
+  <si>
+    <t>+-SELECT  LIMIT 1 [Cost: 41K, Rows: 1 (NO STATISTICS)] (PATH ID: 0)</t>
+  </si>
+  <si>
+    <t>00:00:00.287039</t>
+  </si>
+  <si>
+    <t>13917414</t>
+  </si>
+  <si>
+    <t>| | | +---&gt; JOIN HASH [Cost: 32K, Rows: 4M (NO STATISTICS)] (PATH ID: 3)</t>
   </si>
   <si>
     <t>| | | |      Join Cond: (lineitem.L_ORDERKEY = orders.O_ORDERKEY) AND (customer.C_NATIONKEY = supplier.S_NATIONKEY)</t>
   </si>
   <si>
+    <t>| | | |      Materialize at Input: lineitem.L_ORDERKEY, orders.O_ORDERKEY, orders.O_CUSTKEY</t>
+  </si>
+  <si>
+    <t>00:00:00.163256</t>
+  </si>
+  <si>
+    <t>8745006</t>
+  </si>
+  <si>
+    <t>| | | | +-- Outer -&gt; JOIN HASH [Cost: 8K, Rows: 4M (NO STATISTICS)] (PATH ID: 4)</t>
+  </si>
+  <si>
+    <t>| | | | |      Join Cond: (lineitem.L_SUPPKEY = supplier.S_SUPPKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.524858</t>
+  </si>
+  <si>
+    <t>5951858</t>
+  </si>
+  <si>
+    <t>| | +---&gt; JOIN MERGEJOIN(inputs presorted) [Semi] [Cost: 36K, Rows: 6M (NO STATISTICS)] (PATH ID: 3)</t>
+  </si>
+  <si>
+    <t>| | | | |      Materialize at Input: supplier.S_SUPPKEY, supplier.S_NATIONKEY</t>
+  </si>
+  <si>
+    <t>00:00:00.16266</t>
+  </si>
+  <si>
+    <t>3049734</t>
+  </si>
+  <si>
+    <t>| | | | | +-- Outer -&gt; STORAGE ACCESS for lineitem [Cost: 5K, Rows: 6M (NO STATISTICS)] (PATH ID: 5)</t>
+  </si>
+  <si>
+    <t>| | | |      Runtime Filter: (SIP1(MergeJoin): orders.O_ORDERKEY)</t>
+  </si>
+  <si>
+    <t>| | | | | |      Projection: tpch_1g.LINEITEM_super</t>
+  </si>
+  <si>
+    <t>| | | | | |      Materialize: lineitem.L_SUPPKEY</t>
+  </si>
+  <si>
+    <t>| | | | | |      Runtime Filters: (SIP4(HashJoin): lineitem.L_SUPPKEY), (SIP1(HashJoin): lineitem.L_ORDERKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.002134</t>
+  </si>
+  <si>
+    <t>3039034</t>
+  </si>
+  <si>
+    <t>| | | | | +-- Inner -&gt; JOIN HASH [Cost: 45, Rows: 7K (NO STATISTICS)] (PATH ID: 6)</t>
+  </si>
+  <si>
+    <t>| | | | | |      Materialize at Input: nation.N_NATIONKEY, nation.N_NAME, nation.N_REGIONKEY</t>
+  </si>
+  <si>
+    <t>00:00:00.001945</t>
+  </si>
+  <si>
+    <t>757494</t>
+  </si>
+  <si>
+    <t>| | | | | | +-- Outer -&gt; STORAGE ACCESS for supplier [Cost: 12, Rows: 10K (NO STATISTICS)] (PATH ID: 7)</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Projection: tpch_1g.SUPPLIER_super</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Runtime Filter: (SIP5(HashJoin): supplier.S_NATIONKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.000932</t>
+  </si>
+  <si>
+    <t>3204532</t>
+  </si>
+  <si>
+    <t>| | | | | | +-- Inner -&gt; JOIN HASH [Cost: 16, Rows: 17 (NO STATISTICS)] (PATH ID: 8)</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Join Cond: (nation.N_REGIONKEY = region.R_REGIONKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.000768</t>
+  </si>
+  <si>
+    <t>757316</t>
+  </si>
+  <si>
+    <t>| | | | | | | +-- Outer -&gt; STORAGE ACCESS for nation [Cost: 5, Rows: 25 (NO STATISTICS)] (PATH ID: 9)</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Projection: tpch_1g.NATION_super</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Materialize: nation.N_REGIONKEY</t>
+  </si>
+  <si>
     <t>| | | | | | | |      Runtime Filter: (SIP6(HashJoin): nation.N_REGIONKEY)</t>
   </si>
   <si>
-    <t>| | | | |      Execute on: All Nodes</t>
-  </si>
-  <si>
-    <t>| | | | | |      Projection: tpch_10g.CUSTOMER_super</t>
-  </si>
-  <si>
-    <t>00:00:00.047779</t>
-  </si>
-  <si>
-    <t>2683024</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>| | | | | | | +-- Outer -&gt; STORAGE ACCESS for nation [Cost: 5, Rows: 25 (NO STATISTICS)] (PATH ID: 9)</t>
-  </si>
-  <si>
-    <t>| | | | | |      Projection: tpch_10g.LINEITEM_b0</t>
-  </si>
-  <si>
-    <t>| | | | | |      Materialize at Input: nation.N_NATIONKEY, nation.N_NAME, nation.N_REGIONKEY</t>
+    <t>00:00:00.000231</t>
+  </si>
+  <si>
+    <t>710263</t>
+  </si>
+  <si>
+    <t>| | | | | | | +-- Inner -&gt; STORAGE ACCESS for region [Cost: 10, Rows: 4 (NO STATISTICS)] (PATH ID: 10)</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Projection: tpch_1g.REGION_super</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Materialize: region.R_REGIONKEY</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Filter: (region.R_NAME = /MIDDLE EAST/)</t>
+  </si>
+  <si>
+    <t>00:00:00.136934</t>
+  </si>
+  <si>
+    <t>5900614</t>
+  </si>
+  <si>
+    <t>| | | | +-- Inner -&gt; JOIN HASH [Cost: 4K, Rows: 1M (NO STATISTICS)] (PATH ID: 11)</t>
+  </si>
+  <si>
+    <t>| | | | |      Join Cond: (customer.C_CUSTKEY = orders.O_CUSTKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.121275</t>
+  </si>
+  <si>
+    <t>1895352</t>
+  </si>
+  <si>
+    <t>| | | | | +-- Outer -&gt; STORAGE ACCESS for orders [Cost: 3K, Rows: 1M (NO STATISTICS)] (PATH ID: 12)</t>
+  </si>
+  <si>
+    <t>| | | | | |      Projection: tpch_1g.ORDERS_super</t>
   </si>
   <si>
     <t>| | | | | |      Materialize: orders.O_CUSTKEY</t>
   </si>
   <si>
-    <t>| | | | | | | |      Filter: (region.R_NAME = /MIDDLE EAST/)</t>
+    <t>| | | | | |      Filter: ((orders.O_ORDERDATE &gt;= /1997-01-01/::date) AND (orders.O_ORDERDATE &lt; /1998-01-01 00:00:00/::timestamp))</t>
+  </si>
+  <si>
+    <t>| | | | | |      Runtime Filter: (SIP7(HashJoin): orders.O_CUSTKEY)</t>
+  </si>
+  <si>
+    <t>00:00:00.015791</t>
+  </si>
+  <si>
+    <t>670400</t>
+  </si>
+  <si>
+    <t>| | | | | +-- Inner -&gt; STORAGE ACCESS for customer [Cost: 270, Rows: 150K (NO STATISTICS)] (PATH ID: 13)</t>
+  </si>
+  <si>
+    <t>| | | | | |      Projection: tpch_1g.CUSTOMER_super</t>
   </si>
   <si>
     <t>| | | | | |      Materialize: customer.C_CUSTKEY, customer.C_NATIONKEY</t>
   </si>
   <si>
-    <t>| | | | | |      Join Cond: (supplier.S_NATIONKEY = nation.N_NATIONKEY)</t>
-  </si>
-  <si>
-    <t>| | |      Execute on: All Nodes</t>
-  </si>
-  <si>
-    <t>| | | | | | |      Execute on: All Nodes</t>
-  </si>
-  <si>
-    <t>| | | | |      Join Cond: (lineitem.L_SUPPKEY = supplier.S_SUPPKEY)</t>
-  </si>
-  <si>
-    <t>00:00:00.000078</t>
-  </si>
-  <si>
-    <t>84225</t>
-  </si>
-  <si>
-    <t>+-SELECT  LIMIT 1 [Cost: 645K, Rows: 1 (NO STATISTICS)] (PATH ID: 0)</t>
-  </si>
-  <si>
-    <t>| | |      Group By: nation.N_NAME</t>
-  </si>
-  <si>
-    <t>| | |      Aggregates: sum((lineitem.L_EXTENDEDPRICE * (1 - lineitem.L_DISCOUNT)))</t>
-  </si>
-  <si>
-    <t>| | | | | | | |      Materialize: region.R_REGIONKEY</t>
-  </si>
-  <si>
-    <t>| | | |      Materialize at Input: lineitem.L_ORDERKEY, orders.O_ORDERKEY, orders.O_CUSTKEY</t>
-  </si>
-  <si>
-    <t>00:00:00.161598</t>
-  </si>
-  <si>
-    <t>6352736</t>
-  </si>
-  <si>
-    <t>12009456</t>
-  </si>
-  <si>
-    <t>| | | | | +-- Inner -&gt; STORAGE ACCESS for customer [Cost: 3K, Rows: 2M (NO STATISTICS)] (PATH ID: 13)</t>
-  </si>
-  <si>
-    <t>| | | | | | | |      Projection: tpch_10g.REGION_super</t>
-  </si>
-  <si>
-    <t>| | | | | |      Projection: tpch_10g.ORDERS_b0</t>
-  </si>
-  <si>
-    <t>| | | | | | | |      Materialize: nation.N_REGIONKEY</t>
-  </si>
-  <si>
-    <t>| | | |      Materialize at Output: lineitem.L_EXTENDEDPRICE, lineitem.L_DISCOUNT</t>
-  </si>
-  <si>
-    <t>00:00:01.451031</t>
-  </si>
-  <si>
-    <t>360551308</t>
-  </si>
-  <si>
-    <t>| | +---&gt; GROUPBY HASH (GLOBAL RESEGMENT GROUPS) (LOCAL RESEGMENT GROUPS) [Cost: 645K, Rows: 10K (NO STATISTICS)] (PATH ID: 2)</t>
-  </si>
-  <si>
-    <t>| | | | | |      Execute on: All Nodes</t>
-  </si>
-  <si>
-    <t>| | | | | | |      Runtime Filter: (SIP5(HashJoin): supplier.S_NATIONKEY)</t>
-  </si>
-  <si>
-    <t>00:00:00.011508</t>
-  </si>
-  <si>
-    <t>18603033</t>
-  </si>
-  <si>
-    <t>| +---&gt; SORT [TOPK] [Cost: 645K, Rows: 10K (NO STATISTICS)] (PATH ID: 1)</t>
-  </si>
-  <si>
-    <t>00:00:00.544866</t>
-  </si>
-  <si>
-    <t>20943704</t>
-  </si>
-  <si>
-    <t>| | | | +-- Inner -&gt; JOIN HASH [Cost: 14K, Rows: 15M (NO STATISTICS)] (PATH ID: 11)</t>
-  </si>
-  <si>
-    <t>| |      Execute on: All Nodes</t>
-  </si>
-  <si>
-    <t>00:00:00.039313</t>
-  </si>
-  <si>
-    <t>2725948</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>| | | | | | | +-- Inner -&gt; STORAGE ACCESS for region [Cost: 10, Rows: 4 (NO STATISTICS)] (PATH ID: 10)</t>
-  </si>
-  <si>
-    <t>| | | | | | | |      Execute on: All Nodes</t>
-  </si>
-  <si>
-    <t>| | | | | |      Filter: ((orders.O_ORDERDATE &gt;= /1997-01-01/::date) AND (orders.O_ORDERDATE &lt; /1998-01-01 00:00:00/::timestamp))</t>
-  </si>
-  <si>
-    <t>| | | | | | |      Projection: tpch_10g.SUPPLIER_super</t>
-  </si>
-  <si>
-    <t>00:00:00.048018</t>
-  </si>
-  <si>
-    <t>11145200</t>
-  </si>
-  <si>
-    <t>| | | | | | +-- Inner -&gt; JOIN HASH [Cost: 16, Rows: 17 (NO STATISTICS)] (PATH ID: 8)</t>
-  </si>
-  <si>
-    <t>00:00:00.420561</t>
-  </si>
-  <si>
-    <t>7260128</t>
-  </si>
-  <si>
-    <t>37716590</t>
-  </si>
-  <si>
-    <t>| | | | | +-- Outer -&gt; STORAGE ACCESS for orders [Cost: 7K, Rows: 15M (NO STATISTICS)] (PATH ID: 12)</t>
-  </si>
-  <si>
-    <t>| | | | | |      Runtime Filter: (SIP7(HashJoin): orders.O_CUSTKEY)</t>
-  </si>
-  <si>
-    <t>00:00:01.479631</t>
-  </si>
-  <si>
-    <t>7234064</t>
-  </si>
-  <si>
-    <t>32979557</t>
-  </si>
-  <si>
-    <t>| | | | | +-- Outer -&gt; STORAGE ACCESS for lineitem [Cost: 13K, Rows: 60M (NO STATISTICS)] (PATH ID: 5)</t>
-  </si>
-  <si>
-    <t>| |      Output Only: 1 tuples</t>
-  </si>
-  <si>
-    <t>| | | |      Execute on: All Nodes</t>
-  </si>
-  <si>
-    <t>| | | | | |      Runtime Filters: (SIP4(HashJoin): lineitem.L_SUPPKEY), (SIP1(HashJoin): lineitem.L_ORDERKEY)</t>
-  </si>
-  <si>
-    <t>|  Execute on: Query Initiator</t>
-  </si>
-  <si>
-    <t>| | | | | | |      Join Cond: (nation.N_REGIONKEY = region.R_REGIONKEY)</t>
-  </si>
-  <si>
-    <t>00:00:00.06322</t>
-  </si>
-  <si>
-    <t>2978520</t>
-  </si>
-  <si>
-    <t>400248</t>
-  </si>
-  <si>
-    <t>| | | | | | +-- Outer -&gt; STORAGE ACCESS for supplier [Cost: 92, Rows: 100K (NO STATISTICS)] (PATH ID: 7)</t>
-  </si>
-  <si>
-    <t>| | | | | |      Materialize: lineitem.L_SUPPKEY</t>
-  </si>
-  <si>
-    <t>00:00:00.06344</t>
-  </si>
-  <si>
-    <t>10721288</t>
-  </si>
-  <si>
-    <t>| | | | | +-- Inner -&gt; JOIN HASH [Cost: 219, Rows: 67K (NO STATISTICS)] (PATH ID: 6)</t>
-  </si>
-  <si>
-    <t>| | | | | | |      Materialize: supplier.S_NATIONKEY</t>
-  </si>
-  <si>
-    <t>|  Output Only: 1 tuples</t>
-  </si>
-  <si>
-    <t>| |      Order: sum((lineitem.L_EXTENDEDPRICE * (1 - lineitem.L_DISCOUNT))) DESC</t>
-  </si>
-  <si>
-    <t>| | | | |      Join Cond: (customer.C_CUSTKEY = orders.O_CUSTKEY)</t>
-  </si>
-  <si>
-    <t>| | | | | | | |      Projection: tpch_10g.NATION_super</t>
-  </si>
-  <si>
-    <t>| | | | |      Materialize at Input: supplier.S_SUPPKEY, supplier.S_NATIONKEY</t>
-  </si>
-  <si>
-    <t>monitoring_tpch_query_1</t>
-  </si>
-  <si>
-    <t>monitoring_tpch_query_4</t>
-  </si>
-  <si>
-    <t>monitoring_tpch_query_5</t>
-  </si>
-  <si>
-    <t>tpch_10g - All TPC-H queries</t>
+    <t>tpch_1g - All TPC-H queries</t>
+  </si>
+  <si>
+    <t>00:00:00.000057</t>
+  </si>
+  <si>
+    <t>00:00:00.000115</t>
+  </si>
+  <si>
+    <t>00:00:00.000189</t>
+  </si>
+  <si>
+    <t>00:00:00.892883</t>
+  </si>
+  <si>
+    <t>1346116603</t>
+  </si>
+  <si>
+    <t>00:00:00.581947</t>
+  </si>
+  <si>
+    <t>6099314</t>
+  </si>
+  <si>
+    <t>00:00:00.901249</t>
+  </si>
+  <si>
+    <t>11494044</t>
+  </si>
+  <si>
+    <t>25108144</t>
+  </si>
+  <si>
+    <t>00:00:00.193626</t>
+  </si>
+  <si>
+    <t>| |      Group By: lineitem.L_RETURNFLAG, lineitem.L_LINESTATUS</t>
+  </si>
+  <si>
+    <t>00:00:00.630159</t>
+  </si>
+  <si>
+    <t>3451062</t>
+  </si>
+  <si>
+    <t>9398854</t>
+  </si>
+  <si>
+    <t>00:00:00.240861</t>
+  </si>
+  <si>
+    <t>| | | | |      Projection: schema1.LINEITEM_super</t>
+  </si>
+  <si>
+    <t>00:00:00.348862</t>
+  </si>
+  <si>
+    <t>00:00:00.245735</t>
+  </si>
+  <si>
+    <t>2408868</t>
+  </si>
+  <si>
+    <t>2187963</t>
+  </si>
+  <si>
+    <t>| | | +-- Outer -&gt; STORAGE ACCESS for orders [Cost: 3K, Rows: 1M (NO STATISTICS)] (PATH ID: 4)</t>
+  </si>
+  <si>
+    <t>00:00:00.21578</t>
+  </si>
+  <si>
+    <t>| | | |      Projection: schema1.ORDERS_super</t>
+  </si>
+  <si>
+    <t>00:00:00.215074</t>
+  </si>
+  <si>
+    <t>3246342</t>
+  </si>
+  <si>
+    <t>5198613</t>
+  </si>
+  <si>
+    <t>| | | | | |      Projection: schema1.LINEITEM_super</t>
+  </si>
+  <si>
+    <t>00:00:00.002159</t>
+  </si>
+  <si>
+    <t>3049274</t>
+  </si>
+  <si>
+    <t>00:00:00.001978</t>
+  </si>
+  <si>
+    <t>767734</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>| | | | | | |      Projection: schema1.SUPPLIER_super</t>
+  </si>
+  <si>
+    <t>00:00:00.001487</t>
+  </si>
+  <si>
+    <t>3204820</t>
+  </si>
+  <si>
+    <t>00:00:00.001311</t>
+  </si>
+  <si>
+    <t>757348</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Projection: schema1.NATION_super</t>
+  </si>
+  <si>
+    <t>00:00:00.000284</t>
+  </si>
+  <si>
+    <t>710343</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>| | | | | | | |      Projection: schema1.REGION_super</t>
+  </si>
+  <si>
+    <t>00:00:00.146487</t>
+  </si>
+  <si>
+    <t>00:00:00.130293</t>
+  </si>
+  <si>
+    <t>2026424</t>
+  </si>
+  <si>
+    <t>4292861</t>
+  </si>
+  <si>
+    <t>| | | | | |      Projection: schema1.ORDERS_super</t>
+  </si>
+  <si>
+    <t>00:00:00.016863</t>
+  </si>
+  <si>
+    <t>817856</t>
+  </si>
+  <si>
+    <t>300219</t>
+  </si>
+  <si>
+    <t>| | | | | |      Projection: schema1.CUSTOMER_super</t>
+  </si>
+  <si>
+    <t>schema1 - All TPC-H queries</t>
   </si>
 </sst>
 </file>
@@ -868,7 +1395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI29"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +1467,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1267,23 +1794,23 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="3">
-        <f>tpch_10g!A8</f>
+        <f>tpch_1g!A8</f>
         <v/>
       </c>
       <c r="B22" s="3">
-        <f>tpch_10g!B8</f>
+        <f>tpch_1g!B8</f>
         <v/>
       </c>
       <c r="C22" s="3">
-        <f>tpch_10g!C8</f>
+        <f>tpch_1g!C8</f>
         <v/>
       </c>
       <c r="D22" s="3">
-        <f>tpch_10g!D8</f>
+        <f>tpch_1g!D8</f>
         <v/>
       </c>
       <c r="E22" s="3">
-        <f>tpch_10g!E8</f>
+        <f>tpch_1g!E8</f>
         <v/>
       </c>
       <c r="J22" s="2">
@@ -1291,23 +1818,23 @@
         <v/>
       </c>
       <c r="K22" s="3">
-        <f>tpch_10g!K8</f>
+        <f>tpch_1g!K8</f>
         <v/>
       </c>
       <c r="L22" s="3">
-        <f>tpch_10g!L8</f>
+        <f>tpch_1g!L8</f>
         <v/>
       </c>
       <c r="M22" s="3">
-        <f>tpch_10g!M8</f>
+        <f>tpch_1g!M8</f>
         <v/>
       </c>
       <c r="N22" s="3">
-        <f>tpch_10g!N8</f>
+        <f>tpch_1g!N8</f>
         <v/>
       </c>
       <c r="O22" s="3">
-        <f>tpch_10g!O8</f>
+        <f>tpch_1g!O8</f>
         <v/>
       </c>
       <c r="T22" s="2">
@@ -1315,23 +1842,23 @@
         <v/>
       </c>
       <c r="U22" s="3">
-        <f>tpch_10g!U8</f>
+        <f>tpch_1g!U8</f>
         <v/>
       </c>
       <c r="V22" s="3">
-        <f>tpch_10g!V8</f>
+        <f>tpch_1g!V8</f>
         <v/>
       </c>
       <c r="W22" s="3">
-        <f>tpch_10g!W8</f>
+        <f>tpch_1g!W8</f>
         <v/>
       </c>
       <c r="X22" s="3">
-        <f>tpch_10g!X8</f>
+        <f>tpch_1g!X8</f>
         <v/>
       </c>
       <c r="Y22" s="3">
-        <f>tpch_10g!Y8</f>
+        <f>tpch_1g!Y8</f>
         <v/>
       </c>
       <c r="AD22" s="2">
@@ -1339,187 +1866,187 @@
         <v/>
       </c>
       <c r="AE22" s="3">
-        <f>tpch_10g!AE8</f>
+        <f>tpch_1g!AE8</f>
         <v/>
       </c>
       <c r="AF22" s="3">
-        <f>tpch_10g!AF8</f>
+        <f>tpch_1g!AF8</f>
         <v/>
       </c>
       <c r="AG22" s="3">
-        <f>tpch_10g!AG8</f>
+        <f>tpch_1g!AG8</f>
         <v/>
       </c>
       <c r="AH22" s="3">
-        <f>tpch_10g!AH8</f>
+        <f>tpch_1g!AH8</f>
         <v/>
       </c>
       <c r="AI22" s="3">
-        <f>tpch_10g!AI8</f>
+        <f>tpch_1g!AI8</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23">
-        <f>tpch_10g!A9</f>
+        <f>tpch_1g!A9</f>
         <v/>
       </c>
       <c r="B23">
-        <f>tpch_10g!B9</f>
+        <f>tpch_1g!B9</f>
         <v/>
       </c>
       <c r="C23">
-        <f>tpch_10g!C9</f>
+        <f>tpch_1g!C9</f>
         <v/>
       </c>
       <c r="D23">
-        <f>tpch_10g!D9</f>
+        <f>tpch_1g!D9</f>
         <v/>
       </c>
       <c r="E23">
-        <f>tpch_10g!E9</f>
+        <f>tpch_1g!E9</f>
         <v/>
       </c>
       <c r="K23">
-        <f>tpch_10g!K9</f>
+        <f>tpch_1g!K9</f>
         <v/>
       </c>
       <c r="L23">
-        <f>tpch_10g!L9</f>
+        <f>tpch_1g!L9</f>
         <v/>
       </c>
       <c r="M23">
-        <f>tpch_10g!M9</f>
+        <f>tpch_1g!M9</f>
         <v/>
       </c>
       <c r="N23">
-        <f>tpch_10g!N9</f>
+        <f>tpch_1g!N9</f>
         <v/>
       </c>
       <c r="O23">
-        <f>tpch_10g!O9</f>
+        <f>tpch_1g!O9</f>
         <v/>
       </c>
       <c r="U23">
-        <f>tpch_10g!U9</f>
+        <f>tpch_1g!U9</f>
         <v/>
       </c>
       <c r="V23">
-        <f>tpch_10g!V9</f>
+        <f>tpch_1g!V9</f>
         <v/>
       </c>
       <c r="W23">
-        <f>tpch_10g!W9</f>
+        <f>tpch_1g!W9</f>
         <v/>
       </c>
       <c r="X23">
-        <f>tpch_10g!X9</f>
+        <f>tpch_1g!X9</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>tpch_10g!Y9</f>
+        <f>tpch_1g!Y9</f>
         <v/>
       </c>
       <c r="AE23">
-        <f>tpch_10g!AE9</f>
+        <f>tpch_1g!AE9</f>
         <v/>
       </c>
       <c r="AF23">
-        <f>tpch_10g!AF9</f>
+        <f>tpch_1g!AF9</f>
         <v/>
       </c>
       <c r="AG23">
-        <f>tpch_10g!AG9</f>
+        <f>tpch_1g!AG9</f>
         <v/>
       </c>
       <c r="AH23">
-        <f>tpch_10g!AH9</f>
+        <f>tpch_1g!AH9</f>
         <v/>
       </c>
       <c r="AI23">
-        <f>tpch_10g!AI9</f>
+        <f>tpch_1g!AI9</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:35">
       <c r="A24">
-        <f>tpch_10g!A10</f>
+        <f>tpch_1g!A10</f>
         <v/>
       </c>
       <c r="B24">
-        <f>tpch_10g!B10</f>
+        <f>tpch_1g!B10</f>
         <v/>
       </c>
       <c r="C24">
-        <f>tpch_10g!C10</f>
+        <f>tpch_1g!C10</f>
         <v/>
       </c>
       <c r="D24">
-        <f>tpch_10g!D10</f>
+        <f>tpch_1g!D10</f>
         <v/>
       </c>
       <c r="E24">
-        <f>tpch_10g!E10</f>
+        <f>tpch_1g!E10</f>
         <v/>
       </c>
       <c r="K24">
-        <f>tpch_10g!K10</f>
+        <f>tpch_1g!K10</f>
         <v/>
       </c>
       <c r="L24">
-        <f>tpch_10g!L10</f>
+        <f>tpch_1g!L10</f>
         <v/>
       </c>
       <c r="M24">
-        <f>tpch_10g!M10</f>
+        <f>tpch_1g!M10</f>
         <v/>
       </c>
       <c r="N24">
-        <f>tpch_10g!N10</f>
+        <f>tpch_1g!N10</f>
         <v/>
       </c>
       <c r="O24">
-        <f>tpch_10g!O10</f>
+        <f>tpch_1g!O10</f>
         <v/>
       </c>
       <c r="U24">
-        <f>tpch_10g!U10</f>
+        <f>tpch_1g!U10</f>
         <v/>
       </c>
       <c r="V24">
-        <f>tpch_10g!V10</f>
+        <f>tpch_1g!V10</f>
         <v/>
       </c>
       <c r="W24">
-        <f>tpch_10g!W10</f>
+        <f>tpch_1g!W10</f>
         <v/>
       </c>
       <c r="X24">
-        <f>tpch_10g!X10</f>
+        <f>tpch_1g!X10</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>tpch_10g!Y10</f>
+        <f>tpch_1g!Y10</f>
         <v/>
       </c>
       <c r="AE24">
-        <f>tpch_10g!AE10</f>
+        <f>tpch_1g!AE10</f>
         <v/>
       </c>
       <c r="AF24">
-        <f>tpch_10g!AF10</f>
+        <f>tpch_1g!AF10</f>
         <v/>
       </c>
       <c r="AG24">
-        <f>tpch_10g!AG10</f>
+        <f>tpch_1g!AG10</f>
         <v/>
       </c>
       <c r="AH24">
-        <f>tpch_10g!AH10</f>
+        <f>tpch_1g!AH10</f>
         <v/>
       </c>
       <c r="AI24">
-        <f>tpch_10g!AI10</f>
+        <f>tpch_1g!AI10</f>
         <v/>
       </c>
     </row>
@@ -1533,175 +2060,626 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="5">
-        <f>tpch_10g!A13</f>
+        <f>tpch_1g!A13</f>
         <v/>
       </c>
       <c r="B27" s="5">
-        <f>tpch_10g!B13</f>
+        <f>tpch_1g!B13</f>
         <v/>
       </c>
       <c r="C27" s="5">
-        <f>tpch_10g!C13</f>
+        <f>tpch_1g!C13</f>
         <v/>
       </c>
       <c r="D27" s="5">
-        <f>tpch_10g!D13</f>
+        <f>tpch_1g!D13</f>
         <v/>
       </c>
       <c r="E27" s="5">
-        <f>tpch_10g!E13</f>
+        <f>tpch_1g!E13</f>
         <v/>
       </c>
       <c r="F27" s="5">
-        <f>tpch_10g!F13</f>
+        <f>tpch_1g!F13</f>
         <v/>
       </c>
       <c r="G27" s="5">
-        <f>tpch_10g!G13</f>
+        <f>tpch_1g!G13</f>
         <v/>
       </c>
       <c r="H27" s="5">
-        <f>tpch_10g!H13</f>
+        <f>tpch_1g!H13</f>
         <v/>
       </c>
       <c r="I27" s="5">
-        <f>tpch_10g!I13</f>
+        <f>tpch_1g!I13</f>
         <v/>
       </c>
       <c r="K27" s="3">
-        <f>'tpch_10g-ALL'!A8</f>
+        <f>'tpch_1g-ALL'!A8</f>
         <v/>
       </c>
       <c r="L27" s="3">
-        <f>'tpch_10g-ALL'!B8</f>
+        <f>'tpch_1g-ALL'!B8</f>
         <v/>
       </c>
       <c r="M27" s="3">
-        <f>'tpch_10g-ALL'!C8</f>
+        <f>'tpch_1g-ALL'!C8</f>
         <v/>
       </c>
       <c r="N27" s="3">
-        <f>'tpch_10g-ALL'!D8</f>
+        <f>'tpch_1g-ALL'!D8</f>
         <v/>
       </c>
       <c r="O27" s="3">
-        <f>'tpch_10g-ALL'!E8</f>
+        <f>'tpch_1g-ALL'!E8</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:35">
       <c r="A28">
-        <f>tpch_10g!A14</f>
+        <f>tpch_1g!A14</f>
         <v/>
       </c>
       <c r="B28">
-        <f>tpch_10g!B14</f>
+        <f>tpch_1g!B14</f>
         <v/>
       </c>
       <c r="C28">
-        <f>tpch_10g!C14</f>
+        <f>tpch_1g!C14</f>
         <v/>
       </c>
       <c r="D28">
-        <f>tpch_10g!D14</f>
+        <f>tpch_1g!D14</f>
         <v/>
       </c>
       <c r="E28">
-        <f>tpch_10g!E14</f>
+        <f>tpch_1g!E14</f>
         <v/>
       </c>
       <c r="F28">
-        <f>tpch_10g!F14</f>
+        <f>tpch_1g!F14</f>
         <v/>
       </c>
       <c r="G28">
-        <f>tpch_10g!G14</f>
+        <f>tpch_1g!G14</f>
         <v/>
       </c>
       <c r="H28">
-        <f>tpch_10g!H14</f>
+        <f>tpch_1g!H14</f>
         <v/>
       </c>
       <c r="I28">
-        <f>tpch_10g!I14</f>
+        <f>tpch_1g!I14</f>
         <v/>
       </c>
       <c r="K28">
-        <f>'tpch_10g-ALL'!A9</f>
+        <f>'tpch_1g-ALL'!A9</f>
         <v/>
       </c>
       <c r="L28">
-        <f>'tpch_10g-ALL'!B9</f>
+        <f>'tpch_1g-ALL'!B9</f>
         <v/>
       </c>
       <c r="M28">
-        <f>'tpch_10g-ALL'!C9</f>
+        <f>'tpch_1g-ALL'!C9</f>
         <v/>
       </c>
       <c r="N28">
-        <f>'tpch_10g-ALL'!D9</f>
+        <f>'tpch_1g-ALL'!D9</f>
         <v/>
       </c>
       <c r="O28">
-        <f>'tpch_10g-ALL'!E9</f>
+        <f>'tpch_1g-ALL'!E9</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29">
-        <f>tpch_10g!A15</f>
+        <f>tpch_1g!A15</f>
         <v/>
       </c>
       <c r="B29">
-        <f>tpch_10g!B15</f>
+        <f>tpch_1g!B15</f>
         <v/>
       </c>
       <c r="C29">
-        <f>tpch_10g!C15</f>
+        <f>tpch_1g!C15</f>
         <v/>
       </c>
       <c r="D29">
-        <f>tpch_10g!D15</f>
+        <f>tpch_1g!D15</f>
         <v/>
       </c>
       <c r="E29">
-        <f>tpch_10g!E15</f>
+        <f>tpch_1g!E15</f>
         <v/>
       </c>
       <c r="F29">
-        <f>tpch_10g!F15</f>
+        <f>tpch_1g!F15</f>
         <v/>
       </c>
       <c r="G29">
-        <f>tpch_10g!G15</f>
+        <f>tpch_1g!G15</f>
         <v/>
       </c>
       <c r="H29">
-        <f>tpch_10g!H15</f>
+        <f>tpch_1g!H15</f>
         <v/>
       </c>
       <c r="I29">
-        <f>tpch_10g!I15</f>
+        <f>tpch_1g!I15</f>
         <v/>
       </c>
       <c r="K29">
-        <f>'tpch_10g-ALL'!A10</f>
+        <f>'tpch_1g-ALL'!A10</f>
         <v/>
       </c>
       <c r="L29">
-        <f>'tpch_10g-ALL'!B10</f>
+        <f>'tpch_1g-ALL'!B10</f>
         <v/>
       </c>
       <c r="M29">
-        <f>'tpch_10g-ALL'!C10</f>
+        <f>'tpch_1g-ALL'!C10</f>
         <v/>
       </c>
       <c r="N29">
-        <f>'tpch_10g-ALL'!D10</f>
+        <f>'tpch_1g-ALL'!D10</f>
         <v/>
       </c>
       <c r="O29">
-        <f>'tpch_10g-ALL'!E10</f>
+        <f>'tpch_1g-ALL'!E10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="3">
+        <f>schema1!A8</f>
+        <v/>
+      </c>
+      <c r="B32" s="3">
+        <f>schema1!B8</f>
+        <v/>
+      </c>
+      <c r="C32" s="3">
+        <f>schema1!C8</f>
+        <v/>
+      </c>
+      <c r="D32" s="3">
+        <f>schema1!D8</f>
+        <v/>
+      </c>
+      <c r="E32" s="3">
+        <f>schema1!E8</f>
+        <v/>
+      </c>
+      <c r="J32" s="2">
+        <f>B3</f>
+        <v/>
+      </c>
+      <c r="K32" s="3">
+        <f>schema1!K8</f>
+        <v/>
+      </c>
+      <c r="L32" s="3">
+        <f>schema1!L8</f>
+        <v/>
+      </c>
+      <c r="M32" s="3">
+        <f>schema1!M8</f>
+        <v/>
+      </c>
+      <c r="N32" s="3">
+        <f>schema1!N8</f>
+        <v/>
+      </c>
+      <c r="O32" s="3">
+        <f>schema1!O8</f>
+        <v/>
+      </c>
+      <c r="T32" s="2">
+        <f>C3</f>
+        <v/>
+      </c>
+      <c r="U32" s="3">
+        <f>schema1!U8</f>
+        <v/>
+      </c>
+      <c r="V32" s="3">
+        <f>schema1!V8</f>
+        <v/>
+      </c>
+      <c r="W32" s="3">
+        <f>schema1!W8</f>
+        <v/>
+      </c>
+      <c r="X32" s="3">
+        <f>schema1!X8</f>
+        <v/>
+      </c>
+      <c r="Y32" s="3">
+        <f>schema1!Y8</f>
+        <v/>
+      </c>
+      <c r="AD32" s="2">
+        <f>D3</f>
+        <v/>
+      </c>
+      <c r="AE32" s="3">
+        <f>schema1!AE8</f>
+        <v/>
+      </c>
+      <c r="AF32" s="3">
+        <f>schema1!AF8</f>
+        <v/>
+      </c>
+      <c r="AG32" s="3">
+        <f>schema1!AG8</f>
+        <v/>
+      </c>
+      <c r="AH32" s="3">
+        <f>schema1!AH8</f>
+        <v/>
+      </c>
+      <c r="AI32" s="3">
+        <f>schema1!AI8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33">
+        <f>schema1!A9</f>
+        <v/>
+      </c>
+      <c r="B33">
+        <f>schema1!B9</f>
+        <v/>
+      </c>
+      <c r="C33">
+        <f>schema1!C9</f>
+        <v/>
+      </c>
+      <c r="D33">
+        <f>schema1!D9</f>
+        <v/>
+      </c>
+      <c r="E33">
+        <f>schema1!E9</f>
+        <v/>
+      </c>
+      <c r="K33">
+        <f>schema1!K9</f>
+        <v/>
+      </c>
+      <c r="L33">
+        <f>schema1!L9</f>
+        <v/>
+      </c>
+      <c r="M33">
+        <f>schema1!M9</f>
+        <v/>
+      </c>
+      <c r="N33">
+        <f>schema1!N9</f>
+        <v/>
+      </c>
+      <c r="O33">
+        <f>schema1!O9</f>
+        <v/>
+      </c>
+      <c r="U33">
+        <f>schema1!U9</f>
+        <v/>
+      </c>
+      <c r="V33">
+        <f>schema1!V9</f>
+        <v/>
+      </c>
+      <c r="W33">
+        <f>schema1!W9</f>
+        <v/>
+      </c>
+      <c r="X33">
+        <f>schema1!X9</f>
+        <v/>
+      </c>
+      <c r="Y33">
+        <f>schema1!Y9</f>
+        <v/>
+      </c>
+      <c r="AE33">
+        <f>schema1!AE9</f>
+        <v/>
+      </c>
+      <c r="AF33">
+        <f>schema1!AF9</f>
+        <v/>
+      </c>
+      <c r="AG33">
+        <f>schema1!AG9</f>
+        <v/>
+      </c>
+      <c r="AH33">
+        <f>schema1!AH9</f>
+        <v/>
+      </c>
+      <c r="AI33">
+        <f>schema1!AI9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34">
+        <f>schema1!A10</f>
+        <v/>
+      </c>
+      <c r="B34">
+        <f>schema1!B10</f>
+        <v/>
+      </c>
+      <c r="C34">
+        <f>schema1!C10</f>
+        <v/>
+      </c>
+      <c r="D34">
+        <f>schema1!D10</f>
+        <v/>
+      </c>
+      <c r="E34">
+        <f>schema1!E10</f>
+        <v/>
+      </c>
+      <c r="K34">
+        <f>schema1!K10</f>
+        <v/>
+      </c>
+      <c r="L34">
+        <f>schema1!L10</f>
+        <v/>
+      </c>
+      <c r="M34">
+        <f>schema1!M10</f>
+        <v/>
+      </c>
+      <c r="N34">
+        <f>schema1!N10</f>
+        <v/>
+      </c>
+      <c r="O34">
+        <f>schema1!O10</f>
+        <v/>
+      </c>
+      <c r="U34">
+        <f>schema1!U10</f>
+        <v/>
+      </c>
+      <c r="V34">
+        <f>schema1!V10</f>
+        <v/>
+      </c>
+      <c r="W34">
+        <f>schema1!W10</f>
+        <v/>
+      </c>
+      <c r="X34">
+        <f>schema1!X10</f>
+        <v/>
+      </c>
+      <c r="Y34">
+        <f>schema1!Y10</f>
+        <v/>
+      </c>
+      <c r="AE34">
+        <f>schema1!AE10</f>
+        <v/>
+      </c>
+      <c r="AF34">
+        <f>schema1!AF10</f>
+        <v/>
+      </c>
+      <c r="AG34">
+        <f>schema1!AG10</f>
+        <v/>
+      </c>
+      <c r="AH34">
+        <f>schema1!AH10</f>
+        <v/>
+      </c>
+      <c r="AI34">
+        <f>schema1!AI10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="5">
+        <f>schema1!A13</f>
+        <v/>
+      </c>
+      <c r="B37" s="5">
+        <f>schema1!B13</f>
+        <v/>
+      </c>
+      <c r="C37" s="5">
+        <f>schema1!C13</f>
+        <v/>
+      </c>
+      <c r="D37" s="5">
+        <f>schema1!D13</f>
+        <v/>
+      </c>
+      <c r="E37" s="5">
+        <f>schema1!E13</f>
+        <v/>
+      </c>
+      <c r="F37" s="5">
+        <f>schema1!F13</f>
+        <v/>
+      </c>
+      <c r="G37" s="5">
+        <f>schema1!G13</f>
+        <v/>
+      </c>
+      <c r="H37" s="5">
+        <f>schema1!H13</f>
+        <v/>
+      </c>
+      <c r="I37" s="5">
+        <f>schema1!I13</f>
+        <v/>
+      </c>
+      <c r="K37" s="3">
+        <f>'schema1-ALL'!A8</f>
+        <v/>
+      </c>
+      <c r="L37" s="3">
+        <f>'schema1-ALL'!B8</f>
+        <v/>
+      </c>
+      <c r="M37" s="3">
+        <f>'schema1-ALL'!C8</f>
+        <v/>
+      </c>
+      <c r="N37" s="3">
+        <f>'schema1-ALL'!D8</f>
+        <v/>
+      </c>
+      <c r="O37" s="3">
+        <f>'schema1-ALL'!E8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38">
+        <f>schema1!A14</f>
+        <v/>
+      </c>
+      <c r="B38">
+        <f>schema1!B14</f>
+        <v/>
+      </c>
+      <c r="C38">
+        <f>schema1!C14</f>
+        <v/>
+      </c>
+      <c r="D38">
+        <f>schema1!D14</f>
+        <v/>
+      </c>
+      <c r="E38">
+        <f>schema1!E14</f>
+        <v/>
+      </c>
+      <c r="F38">
+        <f>schema1!F14</f>
+        <v/>
+      </c>
+      <c r="G38">
+        <f>schema1!G14</f>
+        <v/>
+      </c>
+      <c r="H38">
+        <f>schema1!H14</f>
+        <v/>
+      </c>
+      <c r="I38">
+        <f>schema1!I14</f>
+        <v/>
+      </c>
+      <c r="K38">
+        <f>'schema1-ALL'!A9</f>
+        <v/>
+      </c>
+      <c r="L38">
+        <f>'schema1-ALL'!B9</f>
+        <v/>
+      </c>
+      <c r="M38">
+        <f>'schema1-ALL'!C9</f>
+        <v/>
+      </c>
+      <c r="N38">
+        <f>'schema1-ALL'!D9</f>
+        <v/>
+      </c>
+      <c r="O38">
+        <f>'schema1-ALL'!E9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39">
+        <f>schema1!A15</f>
+        <v/>
+      </c>
+      <c r="B39">
+        <f>schema1!B15</f>
+        <v/>
+      </c>
+      <c r="C39">
+        <f>schema1!C15</f>
+        <v/>
+      </c>
+      <c r="D39">
+        <f>schema1!D15</f>
+        <v/>
+      </c>
+      <c r="E39">
+        <f>schema1!E15</f>
+        <v/>
+      </c>
+      <c r="F39">
+        <f>schema1!F15</f>
+        <v/>
+      </c>
+      <c r="G39">
+        <f>schema1!G15</f>
+        <v/>
+      </c>
+      <c r="H39">
+        <f>schema1!H15</f>
+        <v/>
+      </c>
+      <c r="I39">
+        <f>schema1!I15</f>
+        <v/>
+      </c>
+      <c r="K39">
+        <f>'schema1-ALL'!A10</f>
+        <v/>
+      </c>
+      <c r="L39">
+        <f>'schema1-ALL'!B10</f>
+        <v/>
+      </c>
+      <c r="M39">
+        <f>'schema1-ALL'!C10</f>
+        <v/>
+      </c>
+      <c r="N39">
+        <f>'schema1-ALL'!D10</f>
+        <v/>
+      </c>
+      <c r="O39">
+        <f>'schema1-ALL'!E10</f>
         <v/>
       </c>
     </row>
@@ -2239,6 +3217,542 @@
       <formula>DBD!$I9</formula>
     </cfRule>
     <cfRule dxfId="2" operator="equal" priority="156" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule dxfId="0" operator="greaterThan" priority="157" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="158" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="159" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule dxfId="0" operator="greaterThan" priority="160" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="161" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="162" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule dxfId="0" operator="greaterThan" priority="163" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="164" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="165" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule dxfId="0" operator="greaterThan" priority="166" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="167" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="168" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule dxfId="0" operator="greaterThan" priority="169" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="170" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="171" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule dxfId="0" operator="greaterThan" priority="172" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$K9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="173" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$K9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="174" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$K9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule dxfId="0" operator="greaterThan" priority="175" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$L9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="176" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$L9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="177" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$L9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
+    <cfRule dxfId="0" operator="greaterThan" priority="178" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$M9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="179" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$M9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="180" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$M9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule dxfId="0" operator="greaterThan" priority="181" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$N9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="182" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$N9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="183" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$N9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33">
+    <cfRule dxfId="0" operator="greaterThan" priority="184" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$O9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="185" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$O9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="186" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$O9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U33">
+    <cfRule dxfId="0" operator="greaterThan" priority="187" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$U9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="188" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$U9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="189" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$U9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V33">
+    <cfRule dxfId="0" operator="greaterThan" priority="190" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$V9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="191" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$V9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="192" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$V9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W33">
+    <cfRule dxfId="0" operator="greaterThan" priority="193" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$W9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="194" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$W9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="195" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$W9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X33">
+    <cfRule dxfId="0" operator="greaterThan" priority="196" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$X9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="197" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$X9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="198" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$X9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y33">
+    <cfRule dxfId="0" operator="greaterThan" priority="199" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$Y9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="200" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$Y9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="201" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$Y9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE33">
+    <cfRule dxfId="0" operator="greaterThan" priority="202" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AE9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="203" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AE9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="204" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF33">
+    <cfRule dxfId="0" operator="greaterThan" priority="205" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AF9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="206" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AF9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="207" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AF9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG33">
+    <cfRule dxfId="0" operator="greaterThan" priority="208" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AG9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="209" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AG9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="210" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AG9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH33">
+    <cfRule dxfId="0" operator="greaterThan" priority="211" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AH9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="212" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AH9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="213" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AH9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI33">
+    <cfRule dxfId="0" operator="greaterThan" priority="214" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AI9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="215" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AI9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="216" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AI9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule dxfId="0" operator="greaterThan" priority="217" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="218" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="219" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule dxfId="0" operator="greaterThan" priority="220" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="221" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="222" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule dxfId="0" operator="greaterThan" priority="223" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="224" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="225" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38">
+    <cfRule dxfId="0" operator="greaterThan" priority="226" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="227" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="228" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O38">
+    <cfRule dxfId="0" operator="greaterThan" priority="229" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="230" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="231" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule dxfId="0" operator="greaterThan" priority="232" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="233" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="234" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="235" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="236" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="237" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="238" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="239" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="240" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule dxfId="0" operator="greaterThan" priority="241" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="242" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="243" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="244" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="245" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="246" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="247" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="248" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="249" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule dxfId="0" operator="greaterThan" priority="250" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="251" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="252" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="253" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="254" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="255" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="256" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="257" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="258" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule dxfId="0" operator="greaterThan" priority="259" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="260" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="261" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="262" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="263" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="264" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="265" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="266" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="267" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule dxfId="0" operator="greaterThan" priority="268" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="269" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="270" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="271" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="272" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="273" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="274" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="275" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="276" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule dxfId="0" operator="greaterThan" priority="277" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="278" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="279" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="280" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="281" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="282" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="283" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="284" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="285" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule dxfId="0" operator="greaterThan" priority="286" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="287" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="288" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="289" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="290" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="291" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="292" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="293" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="294" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule dxfId="0" operator="greaterThan" priority="295" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="296" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="297" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="298" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="299" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="300" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="301" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="302" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="303" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule dxfId="0" operator="greaterThan" priority="304" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="305" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="306" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="307" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="308" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="309" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="greaterThan" priority="310" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="311" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="312" stopIfTrue="1" type="cellIs">
       <formula>DBD!$I9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2252,7 +3766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM100"/>
+  <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2329,22 +3843,22 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AE5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>6</v>
@@ -2352,64 +3866,64 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="AI8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -2501,200 +4015,1365 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" s="8" t="n"/>
       <c r="AC13" s="8" t="n"/>
       <c r="AM13" s="8" t="n"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="I14">
-        <f>SUM(A14:H14)</f>
-        <v/>
+      <c r="A14" t="n">
+        <v>11117453</v>
+      </c>
+      <c r="B14" t="n">
+        <v>160920553</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1391</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42622622</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6235898</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40710304</v>
+      </c>
+      <c r="G14" t="n">
+        <v>410</v>
+      </c>
+      <c r="H14" t="n">
+        <v>692869</v>
+      </c>
+      <c r="I14" t="n">
+        <v>262301500</v>
       </c>
     </row>
     <row r="17" spans="1:39">
       <c r="K17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="10" t="n"/>
       <c r="U17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V17" s="10" t="n"/>
       <c r="AE17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF17" s="10" t="n"/>
     </row>
     <row r="18" spans="1:39">
       <c r="K18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O18" s="3" t="n"/>
       <c r="U18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y18" s="3" t="n"/>
       <c r="AE18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="12" t="n">
+        <v>42743.92469523187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.50359962898702e+16</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>510023</v>
+      </c>
+      <c r="P19" t="n">
+        <v>498</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1321394</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" s="12" t="n">
+        <v>42743.92483697067</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.503599628987022e+16</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>939995</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>929</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2096094</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>42743.92497992389</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>4.503599628987022e+16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>314512</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>270</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2763408</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>44</v>
+      </c>
+      <c r="V21" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="N22" t="s">
+        <v>50</v>
+      </c>
+      <c r="X22" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" t="s">
+        <v>54</v>
+      </c>
+      <c r="V23" t="s">
+        <v>55</v>
+      </c>
+      <c r="X23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="N24" t="s">
+        <v>58</v>
+      </c>
+      <c r="X24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="N25" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" t="s">
+        <v>64</v>
+      </c>
+      <c r="V25" t="s">
+        <v>65</v>
+      </c>
+      <c r="W25" t="s">
+        <v>66</v>
+      </c>
+      <c r="X25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" t="s">
+        <v>71</v>
+      </c>
+      <c r="X26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="K27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" t="s">
+        <v>75</v>
+      </c>
+      <c r="N27" t="s">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" t="s">
+        <v>82</v>
+      </c>
+      <c r="N28" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" t="s">
+        <v>84</v>
+      </c>
+      <c r="V28" t="s">
+        <v>85</v>
+      </c>
+      <c r="W28" t="s">
+        <v>86</v>
+      </c>
+      <c r="X28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="N29" t="s">
+        <v>89</v>
+      </c>
+      <c r="X29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+      <c r="X30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="X31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="X32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
+      <c r="X33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="X34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="X35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="AE36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="AH37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="AH38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="AH39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="AE40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="AH41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="AE42" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="AH43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="AH44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="AH45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="AH46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="AE47" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="AH48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="AH49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="AH50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="AE51" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="AH52" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39">
+      <c r="AE53" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="AH54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="AH55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="AH56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="AE57" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="AH58" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="AH59" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39">
+      <c r="AH60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39">
+      <c r="AE61" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39">
+      <c r="AH62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39">
+      <c r="AH63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39">
+      <c r="AH64" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="99" spans="1:39">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:39">
       <c r="A100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" s="11" t="n"/>
       <c r="K100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R100" s="11" t="n"/>
       <c r="U100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="V100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="W100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="X100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB100" s="11" t="n"/>
       <c r="AE100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="AF100" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG100" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL100" s="11" t="n"/>
+    </row>
+    <row r="101" spans="1:39">
+      <c r="A101" s="12" t="n">
+        <v>42743.92279924086</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.503599628986982e+16</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>510950</v>
+      </c>
+      <c r="E101" t="n">
+        <v>500</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2555584</v>
+      </c>
+      <c r="H101" t="s">
         <v>36</v>
       </c>
-      <c r="AG100" s="11" t="s">
+      <c r="K101" s="12" t="n">
+        <v>42743.92279924086</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4.503599628986982e+16</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="n">
+        <v>510950</v>
+      </c>
+      <c r="O101" t="n">
+        <v>500</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>2555584</v>
+      </c>
+      <c r="R101" t="s">
+        <v>36</v>
+      </c>
+      <c r="U101" s="12" t="n">
+        <v>42743.92293041221</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4.503599628986984e+16</v>
+      </c>
+      <c r="W101" t="n">
+        <v>5</v>
+      </c>
+      <c r="X101" t="n">
+        <v>1033279</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1018</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>2084270</v>
+      </c>
+      <c r="AB101" t="s">
         <v>37</v>
       </c>
-      <c r="AH100" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI100" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ100" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK100" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL100" s="11" t="n"/>
+      <c r="AE101" s="12" t="n">
+        <v>42743.92306715746</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>4.503599628986986e+16</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>328581</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>283</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>2904678</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39">
+      <c r="A102" s="12" t="n">
+        <v>42743.92286449517</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.503599628986983e+16</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>530426</v>
+      </c>
+      <c r="E102" t="n">
+        <v>518</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1637686</v>
+      </c>
+      <c r="H102" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" s="12" t="n">
+        <v>42743.92286449517</v>
+      </c>
+      <c r="L102" t="n">
+        <v>4.503599628986983e+16</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>530426</v>
+      </c>
+      <c r="O102" t="n">
+        <v>518</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1637686</v>
+      </c>
+      <c r="R102" t="s">
+        <v>36</v>
+      </c>
+      <c r="U102" s="12" t="n">
+        <v>42743.92299970045</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4.503599628986986e+16</v>
+      </c>
+      <c r="W102" t="n">
+        <v>5</v>
+      </c>
+      <c r="X102" t="n">
+        <v>919543</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>907</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>2043938</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE102" s="12" t="n">
+        <v>42743.92313669378</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>4.503599628986988e+16</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>459257</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>394</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>2941632</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39">
+      <c r="A103" s="12" t="n">
+        <v>42743.92293041221</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.503599628986984e+16</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1033279</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2084270</v>
+      </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
+      <c r="K103" s="12" t="n">
+        <v>42743.92462658133</v>
+      </c>
+      <c r="L103" t="n">
+        <v>4.503599628987019e+16</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>503102</v>
+      </c>
+      <c r="O103" t="n">
+        <v>490</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1717865</v>
+      </c>
+      <c r="R103" t="s">
+        <v>36</v>
+      </c>
+      <c r="U103" s="12" t="n">
+        <v>42743.92476358434</v>
+      </c>
+      <c r="V103" t="n">
+        <v>4.503599628987021e+16</v>
+      </c>
+      <c r="W103" t="n">
+        <v>5</v>
+      </c>
+      <c r="X103" t="n">
+        <v>962629</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>951</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>2086844</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE103" s="12" t="n">
+        <v>42743.92491158171</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>4.503599628987022e+16</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>311044</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>267</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2807550</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39">
+      <c r="A104" s="12" t="n">
+        <v>42743.92299970045</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.503599628986986e+16</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>919543</v>
+      </c>
+      <c r="E104" t="n">
+        <v>907</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2043938</v>
+      </c>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+      <c r="K104" s="12" t="n">
+        <v>42743.92469523187</v>
+      </c>
+      <c r="L104" t="n">
+        <v>4.50359962898702e+16</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="n">
+        <v>510023</v>
+      </c>
+      <c r="O104" t="n">
+        <v>498</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1321394</v>
+      </c>
+      <c r="R104" t="s">
+        <v>36</v>
+      </c>
+      <c r="U104" s="12" t="n">
+        <v>42743.92483697067</v>
+      </c>
+      <c r="V104" t="n">
+        <v>4.503599628987022e+16</v>
+      </c>
+      <c r="W104" t="n">
+        <v>5</v>
+      </c>
+      <c r="X104" t="n">
+        <v>939995</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>929</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>2096094</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE104" s="12" t="n">
+        <v>42743.92497992389</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>4.503599628987022e+16</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>314512</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>270</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2763408</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:39">
+      <c r="A105" s="12" t="n">
+        <v>42743.92306715746</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.503599628986986e+16</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>328581</v>
+      </c>
+      <c r="E105" t="n">
+        <v>283</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2904678</v>
+      </c>
+      <c r="H105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39">
+      <c r="A106" s="12" t="n">
+        <v>42743.92313669378</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.503599628986988e+16</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>459257</v>
+      </c>
+      <c r="E106" t="n">
+        <v>394</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2941632</v>
+      </c>
+      <c r="H106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39">
+      <c r="A107" s="12" t="n">
+        <v>42743.92462658133</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.503599628987019e+16</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>503102</v>
+      </c>
+      <c r="E107" t="n">
+        <v>490</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1717865</v>
+      </c>
+      <c r="H107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39">
+      <c r="A108" s="12" t="n">
+        <v>42743.92469523187</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.50359962898702e+16</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>510023</v>
+      </c>
+      <c r="E108" t="n">
+        <v>498</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3233127</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1321394</v>
+      </c>
+      <c r="H108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:39">
+      <c r="A109" s="12" t="n">
+        <v>42743.92476358434</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.503599628987021e+16</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>962629</v>
+      </c>
+      <c r="E109" t="n">
+        <v>951</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2086844</v>
+      </c>
+      <c r="H109" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:39">
+      <c r="A110" s="12" t="n">
+        <v>42743.92483697067</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.503599628987022e+16</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>939995</v>
+      </c>
+      <c r="E110" t="n">
+        <v>929</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2695560</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2096094</v>
+      </c>
+      <c r="H110" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:39">
+      <c r="A111" s="12" t="n">
+        <v>42743.92491158171</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.503599628987022e+16</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>311044</v>
+      </c>
+      <c r="E111" t="n">
+        <v>267</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2807550</v>
+      </c>
+      <c r="H111" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:39">
+      <c r="A112" s="12" t="n">
+        <v>42743.92497992389</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.503599628987022e+16</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>314512</v>
+      </c>
+      <c r="E112" t="n">
+        <v>270</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1385110</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2763408</v>
+      </c>
+      <c r="H112" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:ZZ99">
@@ -2811,22 +5490,22 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AE5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>6</v>
@@ -2834,64 +5513,64 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="AI8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -3049,31 +5728,31 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" s="8" t="n"/>
       <c r="AC13" s="8" t="n"/>
@@ -3125,56 +5804,56 @@
     </row>
     <row r="17" spans="1:39">
       <c r="K17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="10" t="n"/>
       <c r="U17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V17" s="10" t="n"/>
       <c r="AE17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF17" s="10" t="n"/>
     </row>
     <row r="18" spans="1:39">
       <c r="K18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O18" s="3" t="n"/>
       <c r="U18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y18" s="3" t="n"/>
       <c r="AE18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI18" s="3" t="n"/>
     </row>
@@ -3194,91 +5873,91 @@
     </row>
     <row r="100" spans="1:39">
       <c r="A100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" s="11" t="n"/>
       <c r="K100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R100" s="11" t="n"/>
       <c r="U100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="V100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="W100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="X100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB100" s="11" t="n"/>
       <c r="AE100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="AF100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="AG100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="AH100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL100" s="11" t="n"/>
     </row>
@@ -3368,7 +6047,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2" t="n"/>
       <c r="V5" s="2" t="n"/>
@@ -3376,19 +6055,19 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="8" t="n"/>
       <c r="L8" s="8" t="n"/>
@@ -3453,31 +6132,31 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" s="8" t="n"/>
       <c r="AC13" s="8" t="n"/>
@@ -3556,25 +6235,25 @@
     </row>
     <row r="100" spans="1:39">
       <c r="A100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" s="11" t="n"/>
       <c r="K100" s="8" t="n"/>
@@ -3690,7 +6369,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2" t="n"/>
       <c r="V5" s="2" t="n"/>
@@ -3698,19 +6377,19 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="8" t="n"/>
       <c r="L8" s="8" t="n"/>
@@ -3757,40 +6436,63 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" s="8" t="n"/>
       <c r="AC13" s="8" t="n"/>
       <c r="AM13" s="8" t="n"/>
     </row>
     <row r="14" spans="1:39">
-      <c r="I14">
-        <f>SUM(A14:H14)</f>
-        <v/>
+      <c r="A14" t="n">
+        <v>11117453</v>
+      </c>
+      <c r="B14" t="n">
+        <v>160920553</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1391</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42622622</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6235898</v>
+      </c>
+      <c r="F14" t="n">
+        <v>40710304</v>
+      </c>
+      <c r="G14" t="n">
+        <v>410</v>
+      </c>
+      <c r="H14" t="n">
+        <v>692869</v>
+      </c>
+      <c r="I14" t="n">
+        <v>262301500</v>
       </c>
     </row>
     <row r="17" spans="1:39">
@@ -3822,25 +6524,25 @@
     </row>
     <row r="100" spans="1:39">
       <c r="A100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" s="11" t="n"/>
       <c r="K100" s="8" t="n"/>
@@ -3879,7 +6581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM124"/>
+  <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3956,22 +6658,22 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="U5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="AE5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>6</v>
@@ -3979,64 +6681,64 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="3" t="s">
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AE8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="AI8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -4194,31 +6896,31 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" s="8" t="n"/>
       <c r="AC13" s="8" t="n"/>
@@ -4226,31 +6928,31 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="n">
-        <v>454880025</v>
+        <v>11382838</v>
       </c>
       <c r="B14" t="n">
-        <v>4299312278</v>
+        <v>208268373</v>
       </c>
       <c r="C14" t="n">
-        <v>5404</v>
+        <v>1351</v>
       </c>
       <c r="D14" t="n">
-        <v>1110093398</v>
+        <v>53717231</v>
       </c>
       <c r="E14" t="n">
-        <v>302392551</v>
+        <v>7560552</v>
       </c>
       <c r="F14" t="n">
-        <v>1713301464</v>
+        <v>42054359</v>
       </c>
       <c r="G14" t="n">
-        <v>1632</v>
+        <v>408</v>
       </c>
       <c r="H14" t="n">
-        <v>28203512</v>
+        <v>706870</v>
       </c>
       <c r="I14" t="n">
-        <v>7908190264</v>
+        <v>323691982</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -4293,1763 +6995,1285 @@
     </row>
     <row r="17" spans="1:39">
       <c r="K17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="10" t="n"/>
       <c r="U17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V17" s="10" t="n"/>
       <c r="AE17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF17" s="10" t="n"/>
     </row>
     <row r="18" spans="1:39">
       <c r="K18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O18" s="3" t="n"/>
       <c r="U18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y18" s="3" t="n"/>
       <c r="AE18" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF18" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI18" s="3" t="n"/>
     </row>
     <row r="19" spans="1:39">
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="12" t="n">
+        <v>42743.92425495317</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.503599628987014e+16</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>689084</v>
+      </c>
+      <c r="P19" t="n">
+        <v>677</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3486970</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1535416</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="12" t="n">
+        <v>42743.92439378076</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.503599628987016e+16</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>661217</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>651</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3421434.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1208922</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>37</v>
+      </c>
       <c r="AE19" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>42743.92453987823</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>4.503599628987018e+16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>567024</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>533</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1400347</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>3889554</v>
+      </c>
+      <c r="AM19" t="s">
         <v>38</v>
       </c>
-      <c r="AF19" t="s">
+    </row>
+    <row r="20" spans="1:39">
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="X20" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH20" t="s">
         <v>39</v>
       </c>
-      <c r="AH19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
-      <c r="AE20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="21" spans="1:39">
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="X21" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>48</v>
+      </c>
       <c r="AH21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="U22" t="s">
+        <v>171</v>
+      </c>
+      <c r="V22" t="s">
+        <v>172</v>
+      </c>
+      <c r="W22" t="s">
+        <v>141</v>
+      </c>
+      <c r="X22" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="X23" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="X24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="N25" t="s">
+        <v>181</v>
+      </c>
+      <c r="U25" t="s">
+        <v>182</v>
+      </c>
+      <c r="V25" t="s">
+        <v>183</v>
+      </c>
+      <c r="X25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="N26" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="K27" t="s">
+        <v>185</v>
+      </c>
+      <c r="L27" t="s">
+        <v>186</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="U27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:39">
-      <c r="AH22" t="s">
+      <c r="V27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:39">
-      <c r="AH23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39">
-      <c r="AH24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39">
-      <c r="AE25" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="X27" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="X28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="X29" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
+      <c r="X30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="X31" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="X32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:39">
-      <c r="AH26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:39">
-      <c r="AH27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39">
-      <c r="AH28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39">
-      <c r="AH29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:39">
-      <c r="AH30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39">
-      <c r="AH31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39">
       <c r="AH32" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:39">
+      <c r="U33" t="s">
+        <v>198</v>
+      </c>
+      <c r="V33" t="s">
+        <v>199</v>
+      </c>
+      <c r="X33" t="s">
+        <v>200</v>
+      </c>
       <c r="AH33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="X34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AE34" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>141</v>
+      </c>
       <c r="AH34" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:39">
-      <c r="AE35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>62</v>
+      <c r="X35" t="s">
+        <v>205</v>
       </c>
       <c r="AH35" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:39">
       <c r="AH36" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:39">
       <c r="AH37" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:39">
+      <c r="AE38" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>210</v>
+      </c>
       <c r="AH38" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:39">
       <c r="AH39" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="AH40" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="AE41" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="AF41" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="AG41" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="AH41" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="AH42" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="AH43" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="AH44" t="s">
-        <v>74</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:39">
+      <c r="AE45" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>219</v>
+      </c>
       <c r="AH45" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="AH46" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="AE47" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AF47" t="s">
-        <v>77</v>
+        <v>223</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>141</v>
       </c>
       <c r="AH47" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="AH48" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="AH49" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:39">
-      <c r="AE50" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>82</v>
-      </c>
       <c r="AH50" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:39">
+      <c r="AE51" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>141</v>
+      </c>
       <c r="AH51" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:39">
-      <c r="AE52" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>85</v>
-      </c>
       <c r="AH52" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="AH53" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:39">
-      <c r="AE54" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>90</v>
-      </c>
       <c r="AH54" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:39">
+      <c r="AE55" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>235</v>
+      </c>
       <c r="AH55" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="AH56" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:39">
+      <c r="AE57" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>141</v>
+      </c>
       <c r="AH57" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:39">
-      <c r="AE58" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>96</v>
-      </c>
       <c r="AH58" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:39">
-      <c r="AE59" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>100</v>
-      </c>
       <c r="AH59" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="AH60" t="s">
-        <v>102</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:39">
-      <c r="AE61" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>105</v>
-      </c>
       <c r="AH61" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:39">
+      <c r="AE62" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>141</v>
+      </c>
       <c r="AH62" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="AH63" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="AH64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:39">
-      <c r="AH65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:39">
-      <c r="AH66" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:39">
-      <c r="AE67" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:39">
-      <c r="AH68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:39">
-      <c r="AH69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:39">
-      <c r="AH70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:39">
-      <c r="AH71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:39">
-      <c r="AE72" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:39">
-      <c r="AH73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:39">
-      <c r="AH74" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:39">
-      <c r="AH75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:39">
-      <c r="AH76" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="77" spans="1:39">
-      <c r="AH77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:39">
-      <c r="AH78" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:39">
       <c r="A99" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K99" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U99" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE99" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:39">
       <c r="A100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" s="11" t="n"/>
       <c r="K100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="L100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="N100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R100" s="11" t="n"/>
       <c r="U100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="V100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="W100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="X100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB100" s="11" t="n"/>
       <c r="AE100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="AF100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="AG100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="AH100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL100" s="11" t="n"/>
     </row>
     <row r="101" spans="1:39">
       <c r="A101" s="12" t="n">
-        <v>42740.60279203559</v>
+        <v>42743.92238241152</v>
       </c>
       <c r="B101" t="n">
-        <v>4.503599627370843e+16</v>
+        <v>4.503599628986976e+16</v>
       </c>
       <c r="C101" t="n">
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>2577888</v>
+        <v>892240</v>
       </c>
       <c r="E101" t="n">
-        <v>2549</v>
+        <v>879</v>
       </c>
       <c r="F101" t="n">
-        <v>1897211</v>
+        <v>3486970</v>
       </c>
       <c r="G101" t="n">
-        <v>4254490</v>
+        <v>1589895</v>
       </c>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="K101" s="12" t="n">
-        <v>42740.60279203559</v>
+        <v>42743.92238241152</v>
       </c>
       <c r="L101" t="n">
-        <v>4.503599627370843e+16</v>
+        <v>4.503599628986976e+16</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="n">
-        <v>2577888</v>
+        <v>892240</v>
       </c>
       <c r="O101" t="n">
-        <v>2549</v>
+        <v>879</v>
       </c>
       <c r="P101" t="n">
-        <v>1897211</v>
+        <v>3486970</v>
       </c>
       <c r="Q101" t="n">
-        <v>4254490</v>
+        <v>1589895</v>
       </c>
       <c r="R101" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="U101" s="12" t="n">
-        <v>42740.60305689105</v>
+        <v>42743.92253757279</v>
       </c>
       <c r="V101" t="n">
-        <v>4.503599627370848e+16</v>
+        <v>4.503599628986978e+16</v>
       </c>
       <c r="W101" t="n">
         <v>5</v>
       </c>
       <c r="X101" t="n">
-        <v>2089747</v>
+        <v>650541</v>
       </c>
       <c r="Y101" t="n">
-        <v>2059</v>
+        <v>640</v>
       </c>
       <c r="Z101" t="n">
-        <v>1831564</v>
+        <v>3421434</v>
       </c>
       <c r="AA101" t="n">
-        <v>4144624</v>
+        <v>1189482</v>
       </c>
       <c r="AB101" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="AE101" s="12" t="n">
-        <v>42740.60327436418</v>
+        <v>42743.92267047875</v>
       </c>
       <c r="AF101" t="n">
-        <v>4.503599627370853e+16</v>
+        <v>4.50359962898698e+16</v>
       </c>
       <c r="AG101" t="n">
         <v>5</v>
       </c>
       <c r="AH101" t="n">
-        <v>1885196</v>
+        <v>415236</v>
       </c>
       <c r="AI101" t="n">
-        <v>1843</v>
+        <v>392</v>
       </c>
       <c r="AJ101" t="n">
-        <v>1080687</v>
+        <v>1400347</v>
       </c>
       <c r="AK101" t="n">
-        <v>14577246</v>
+        <v>3639702</v>
       </c>
       <c r="AL101" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:39">
       <c r="A102" s="12" t="n">
-        <v>42740.60282961141</v>
+        <v>42743.92245738445</v>
       </c>
       <c r="B102" t="n">
-        <v>4.503599627370844e+16</v>
+        <v>4.503599628986978e+16</v>
       </c>
       <c r="C102" t="n">
         <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>2142992</v>
+        <v>1037092</v>
       </c>
       <c r="E102" t="n">
-        <v>2113</v>
+        <v>1023</v>
       </c>
       <c r="F102" t="n">
-        <v>1897209</v>
+        <v>3486970</v>
       </c>
       <c r="G102" t="n">
-        <v>3363854</v>
+        <v>1552440</v>
       </c>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="K102" s="12" t="n">
-        <v>42740.60282961141</v>
+        <v>42743.92245738445</v>
       </c>
       <c r="L102" t="n">
-        <v>4.503599627370844e+16</v>
+        <v>4.503599628986978e+16</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="n">
-        <v>2142992</v>
+        <v>1037092</v>
       </c>
       <c r="O102" t="n">
-        <v>2113</v>
+        <v>1023</v>
       </c>
       <c r="P102" t="n">
-        <v>1897209</v>
+        <v>3486970</v>
       </c>
       <c r="Q102" t="n">
-        <v>3363854</v>
+        <v>1552440</v>
       </c>
       <c r="R102" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="U102" s="12" t="n">
-        <v>42740.60308800789</v>
+        <v>42743.92260326067</v>
       </c>
       <c r="V102" t="n">
-        <v>4.503599627370849e+16</v>
+        <v>4.503599628986979e+16</v>
       </c>
       <c r="W102" t="n">
         <v>5</v>
       </c>
       <c r="X102" t="n">
-        <v>1555281</v>
+        <v>687775</v>
       </c>
       <c r="Y102" t="n">
-        <v>1525</v>
+        <v>671</v>
       </c>
       <c r="Z102" t="n">
-        <v>1831564</v>
+        <v>3421434</v>
       </c>
       <c r="AA102" t="n">
-        <v>2811400</v>
+        <v>1287200</v>
       </c>
       <c r="AB102" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="AE102" s="12" t="n">
-        <v>42740.60330308098</v>
+        <v>42743.92273483538</v>
       </c>
       <c r="AF102" t="n">
-        <v>4.503599627370854e+16</v>
+        <v>4.503599628986981e+16</v>
       </c>
       <c r="AG102" t="n">
         <v>5</v>
       </c>
       <c r="AH102" t="n">
-        <v>1682543</v>
+        <v>411518</v>
       </c>
       <c r="AI102" t="n">
-        <v>1638</v>
+        <v>390</v>
       </c>
       <c r="AJ102" t="n">
-        <v>1080687</v>
+        <v>1400347</v>
       </c>
       <c r="AK102" t="n">
-        <v>12291270</v>
+        <v>3662178</v>
       </c>
       <c r="AL102" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:39">
       <c r="A103" s="12" t="n">
-        <v>42740.60286127213</v>
+        <v>42743.92253757279</v>
       </c>
       <c r="B103" t="n">
-        <v>4.503599627370845e+16</v>
+        <v>4.503599628986978e+16</v>
       </c>
       <c r="C103" t="n">
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>2210022</v>
+        <v>650541</v>
       </c>
       <c r="E103" t="n">
-        <v>2178</v>
+        <v>640</v>
       </c>
       <c r="F103" t="n">
-        <v>1897117</v>
+        <v>3421434</v>
       </c>
       <c r="G103" t="n">
-        <v>3453579</v>
+        <v>1189482</v>
       </c>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="K103" s="12" t="n">
-        <v>42740.60286127213</v>
+        <v>42743.92418798628</v>
       </c>
       <c r="L103" t="n">
-        <v>4.503599627370845e+16</v>
+        <v>4.503599628987014e+16</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="n">
-        <v>2210022</v>
+        <v>690019</v>
       </c>
       <c r="O103" t="n">
-        <v>2178</v>
+        <v>678</v>
       </c>
       <c r="P103" t="n">
-        <v>1897117</v>
+        <v>3486970</v>
       </c>
       <c r="Q103" t="n">
-        <v>3453579</v>
+        <v>1532871</v>
       </c>
       <c r="R103" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="U103" s="12" t="n">
-        <v>42740.60311322851</v>
+        <v>42743.9243226559</v>
       </c>
       <c r="V103" t="n">
-        <v>4.50359962737085e+16</v>
+        <v>4.503599628987015e+16</v>
       </c>
       <c r="W103" t="n">
         <v>5</v>
       </c>
       <c r="X103" t="n">
-        <v>1690244</v>
+        <v>683796</v>
       </c>
       <c r="Y103" t="n">
-        <v>1665</v>
+        <v>674</v>
       </c>
       <c r="Z103" t="n">
-        <v>1831564</v>
+        <v>3421434</v>
       </c>
       <c r="AA103" t="n">
-        <v>2785298</v>
+        <v>1228386</v>
       </c>
       <c r="AB103" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="AE103" s="12" t="n">
-        <v>42740.60333011221</v>
+        <v>42743.92446345339</v>
       </c>
       <c r="AF103" t="n">
-        <v>4.503599627370854e+16</v>
+        <v>4.503599628987017e+16</v>
       </c>
       <c r="AG103" t="n">
         <v>5</v>
       </c>
       <c r="AH103" t="n">
-        <v>1705002</v>
+        <v>513723</v>
       </c>
       <c r="AI103" t="n">
-        <v>1667</v>
+        <v>489</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1080687</v>
+        <v>1400347</v>
       </c>
       <c r="AK103" t="n">
-        <v>12305904</v>
+        <v>3635424</v>
       </c>
       <c r="AL103" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:39">
       <c r="A104" s="12" t="n">
-        <v>42740.60289374119</v>
+        <v>42743.92260326067</v>
       </c>
       <c r="B104" t="n">
-        <v>4.503599627370846e+16</v>
+        <v>4.503599628986979e+16</v>
       </c>
       <c r="C104" t="n">
         <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>2203746</v>
+        <v>687775</v>
       </c>
       <c r="E104" t="n">
-        <v>2173</v>
+        <v>671</v>
       </c>
       <c r="F104" t="n">
-        <v>1897115</v>
+        <v>3421434</v>
       </c>
       <c r="G104" t="n">
-        <v>579</v>
+        <v>1287200</v>
       </c>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="K104" s="12" t="n">
-        <v>42740.60289374119</v>
+        <v>42743.92425495317</v>
       </c>
       <c r="L104" t="n">
-        <v>4.503599627370846e+16</v>
+        <v>4.503599628987014e+16</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="n">
-        <v>2203746</v>
+        <v>689084</v>
       </c>
       <c r="O104" t="n">
-        <v>2173</v>
+        <v>677</v>
       </c>
       <c r="P104" t="n">
-        <v>1897115</v>
+        <v>3486970</v>
       </c>
       <c r="Q104" t="n">
-        <v>579</v>
+        <v>1535416</v>
       </c>
       <c r="R104" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="U104" s="12" t="n">
-        <v>42740.60313968173</v>
+        <v>42743.92439378076</v>
       </c>
       <c r="V104" t="n">
-        <v>4.50359962737085e+16</v>
+        <v>4.503599628987016e+16</v>
       </c>
       <c r="W104" t="n">
         <v>5</v>
       </c>
       <c r="X104" t="n">
-        <v>1752810</v>
+        <v>661217</v>
       </c>
       <c r="Y104" t="n">
-        <v>1730</v>
+        <v>651</v>
       </c>
       <c r="Z104" t="n">
-        <v>1831564</v>
+        <v>3421434</v>
       </c>
       <c r="AA104" t="n">
-        <v>2913528</v>
+        <v>1208922</v>
       </c>
       <c r="AB104" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="AE104" s="12" t="n">
-        <v>42740.6033570906</v>
+        <v>42743.92453987823</v>
       </c>
       <c r="AF104" t="n">
-        <v>4.503599627370855e+16</v>
+        <v>4.503599628987018e+16</v>
       </c>
       <c r="AG104" t="n">
         <v>5</v>
       </c>
       <c r="AH104" t="n">
-        <v>1727354</v>
+        <v>567024</v>
       </c>
       <c r="AI104" t="n">
-        <v>1676</v>
+        <v>533</v>
       </c>
       <c r="AJ104" t="n">
-        <v>1080687</v>
+        <v>1400347</v>
       </c>
       <c r="AK104" t="n">
-        <v>12028158</v>
+        <v>3889554</v>
       </c>
       <c r="AL104" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:39">
       <c r="A105" s="12" t="n">
-        <v>42740.60292617972</v>
+        <v>42743.92267047875</v>
       </c>
       <c r="B105" t="n">
-        <v>4.503599627370846e+16</v>
+        <v>4.50359962898698e+16</v>
       </c>
       <c r="C105" t="n">
         <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>2218265</v>
+        <v>415236</v>
       </c>
       <c r="E105" t="n">
-        <v>2188</v>
+        <v>392</v>
       </c>
       <c r="F105" t="n">
-        <v>1897115</v>
+        <v>1400347</v>
       </c>
       <c r="G105" t="n">
-        <v>3467757</v>
+        <v>3639702</v>
       </c>
       <c r="H105" t="s">
-        <v>126</v>
-      </c>
-      <c r="K105" s="12" t="n">
-        <v>42740.60292617972</v>
-      </c>
-      <c r="L105" t="n">
-        <v>4.503599627370846e+16</v>
-      </c>
-      <c r="M105" t="n">
-        <v>5</v>
-      </c>
-      <c r="N105" t="n">
-        <v>2218265</v>
-      </c>
-      <c r="O105" t="n">
-        <v>2188</v>
-      </c>
-      <c r="P105" t="n">
-        <v>1897115</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>3467757</v>
-      </c>
-      <c r="R105" t="s">
-        <v>126</v>
-      </c>
-      <c r="U105" s="12" t="n">
-        <v>42740.6031669529</v>
-      </c>
-      <c r="V105" t="n">
-        <v>4.503599627370851e+16</v>
-      </c>
-      <c r="W105" t="n">
-        <v>5</v>
-      </c>
-      <c r="X105" t="n">
-        <v>1674819</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>1651</v>
-      </c>
-      <c r="Z105" t="n">
-        <v>1831563</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>29346</v>
-      </c>
-      <c r="AB105" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE105" s="12" t="n">
-        <v>42740.6033845815</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>4.503599627370856e+16</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>1736258</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>1699</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>11181456</v>
-      </c>
-      <c r="AL105" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:39">
       <c r="A106" s="12" t="n">
-        <v>42740.60295851234</v>
+        <v>42743.92273483538</v>
       </c>
       <c r="B106" t="n">
-        <v>4.503599627370846e+16</v>
+        <v>4.503599628986981e+16</v>
       </c>
       <c r="C106" t="n">
         <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>2275937</v>
+        <v>411518</v>
       </c>
       <c r="E106" t="n">
-        <v>2246</v>
+        <v>390</v>
       </c>
       <c r="F106" t="n">
-        <v>1897100</v>
+        <v>1400347</v>
       </c>
       <c r="G106" t="n">
-        <v>3492598</v>
+        <v>3662178</v>
       </c>
       <c r="H106" t="s">
-        <v>126</v>
-      </c>
-      <c r="K106" s="12" t="n">
-        <v>42740.60295851234</v>
-      </c>
-      <c r="L106" t="n">
-        <v>4.503599627370846e+16</v>
-      </c>
-      <c r="M106" t="n">
-        <v>5</v>
-      </c>
-      <c r="N106" t="n">
-        <v>2275937</v>
-      </c>
-      <c r="O106" t="n">
-        <v>2246</v>
-      </c>
-      <c r="P106" t="n">
-        <v>1897100</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>3492598</v>
-      </c>
-      <c r="R106" t="s">
-        <v>126</v>
-      </c>
-      <c r="U106" s="12" t="n">
-        <v>42740.60319330234</v>
-      </c>
-      <c r="V106" t="n">
-        <v>4.503599627370851e+16</v>
-      </c>
-      <c r="W106" t="n">
-        <v>5</v>
-      </c>
-      <c r="X106" t="n">
-        <v>1620042</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>1597</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>1831563</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>2772136</v>
-      </c>
-      <c r="AB106" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE106" s="12" t="n">
-        <v>42740.60341200971</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>4.503599627370856e+16</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>1739467</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>1700</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>12349800</v>
-      </c>
-      <c r="AL106" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:39">
       <c r="A107" s="12" t="n">
-        <v>42740.60299170089</v>
+        <v>42743.92418798628</v>
       </c>
       <c r="B107" t="n">
-        <v>4.503599627370847e+16</v>
+        <v>4.503599628987014e+16</v>
       </c>
       <c r="C107" t="n">
         <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>2153584</v>
+        <v>690019</v>
       </c>
       <c r="E107" t="n">
-        <v>2126</v>
+        <v>678</v>
       </c>
       <c r="F107" t="n">
-        <v>1897100</v>
+        <v>3486970</v>
       </c>
       <c r="G107" t="n">
-        <v>3346003</v>
+        <v>1532871</v>
       </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-      <c r="K107" s="12" t="n">
-        <v>42740.60299170089</v>
-      </c>
-      <c r="L107" t="n">
-        <v>4.503599627370847e+16</v>
-      </c>
-      <c r="M107" t="n">
-        <v>5</v>
-      </c>
-      <c r="N107" t="n">
-        <v>2153584</v>
-      </c>
-      <c r="O107" t="n">
-        <v>2126</v>
-      </c>
-      <c r="P107" t="n">
-        <v>1897100</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>3346003</v>
-      </c>
-      <c r="R107" t="s">
-        <v>126</v>
-      </c>
-      <c r="U107" s="12" t="n">
-        <v>42740.60322081183</v>
-      </c>
-      <c r="V107" t="n">
-        <v>4.503599627370852e+16</v>
-      </c>
-      <c r="W107" t="n">
-        <v>5</v>
-      </c>
-      <c r="X107" t="n">
-        <v>1652632</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>1629</v>
-      </c>
-      <c r="Z107" t="n">
-        <v>1831563</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>3173284</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE107" s="12" t="n">
-        <v>42740.6034397702</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>4.503599627370857e+16</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>1746266</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>1700</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>12308484</v>
-      </c>
-      <c r="AL107" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="108" spans="1:39">
       <c r="A108" s="12" t="n">
-        <v>42740.60302356718</v>
+        <v>42743.92425495317</v>
       </c>
       <c r="B108" t="n">
-        <v>4.503599627370848e+16</v>
+        <v>4.503599628987014e+16</v>
       </c>
       <c r="C108" t="n">
         <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>2278723</v>
+        <v>689084</v>
       </c>
       <c r="E108" t="n">
-        <v>2249</v>
+        <v>677</v>
       </c>
       <c r="F108" t="n">
-        <v>1897100</v>
+        <v>3486970</v>
       </c>
       <c r="G108" t="n">
-        <v>3459787</v>
+        <v>1535416</v>
       </c>
       <c r="H108" t="s">
-        <v>126</v>
-      </c>
-      <c r="K108" s="12" t="n">
-        <v>42740.60302356718</v>
-      </c>
-      <c r="L108" t="n">
-        <v>4.503599627370848e+16</v>
-      </c>
-      <c r="M108" t="n">
-        <v>5</v>
-      </c>
-      <c r="N108" t="n">
-        <v>2278723</v>
-      </c>
-      <c r="O108" t="n">
-        <v>2249</v>
-      </c>
-      <c r="P108" t="n">
-        <v>1897100</v>
-      </c>
-      <c r="Q108" t="n">
-        <v>3459787</v>
-      </c>
-      <c r="R108" t="s">
-        <v>126</v>
-      </c>
-      <c r="U108" s="12" t="n">
-        <v>42740.60324693256</v>
-      </c>
-      <c r="V108" t="n">
-        <v>4.503599627370853e+16</v>
-      </c>
-      <c r="W108" t="n">
-        <v>5</v>
-      </c>
-      <c r="X108" t="n">
-        <v>1739570</v>
-      </c>
-      <c r="Y108" t="n">
-        <v>1716</v>
-      </c>
-      <c r="Z108" t="n">
-        <v>1831563</v>
-      </c>
-      <c r="AA108" t="n">
-        <v>3080940</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE108" s="12" t="n">
-        <v>42740.60346706689</v>
-      </c>
-      <c r="AF108" t="n">
-        <v>4.503599627370858e+16</v>
-      </c>
-      <c r="AG108" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH108" t="n">
-        <v>1702953</v>
-      </c>
-      <c r="AI108" t="n">
-        <v>1663</v>
-      </c>
-      <c r="AJ108" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="AK108" t="n">
-        <v>12664554</v>
-      </c>
-      <c r="AL108" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
     </row>
     <row r="109" spans="1:39">
       <c r="A109" s="12" t="n">
-        <v>42740.60305689105</v>
+        <v>42743.9243226559</v>
       </c>
       <c r="B109" t="n">
-        <v>4.503599627370848e+16</v>
+        <v>4.503599628987015e+16</v>
       </c>
       <c r="C109" t="n">
         <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>2089747</v>
+        <v>683796</v>
       </c>
       <c r="E109" t="n">
-        <v>2059</v>
+        <v>674</v>
       </c>
       <c r="F109" t="n">
-        <v>1831564</v>
+        <v>3421434</v>
       </c>
       <c r="G109" t="n">
-        <v>4144624</v>
+        <v>1228386</v>
       </c>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:39">
       <c r="A110" s="12" t="n">
-        <v>42740.60308800789</v>
+        <v>42743.92439378076</v>
       </c>
       <c r="B110" t="n">
-        <v>4.503599627370849e+16</v>
+        <v>4.503599628987016e+16</v>
       </c>
       <c r="C110" t="n">
         <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>1555281</v>
+        <v>661217</v>
       </c>
       <c r="E110" t="n">
-        <v>1525</v>
+        <v>651</v>
       </c>
       <c r="F110" t="n">
-        <v>1831564</v>
+        <v>3421434</v>
       </c>
       <c r="G110" t="n">
-        <v>2811400</v>
+        <v>1208922</v>
       </c>
       <c r="H110" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:39">
       <c r="A111" s="12" t="n">
-        <v>42740.60311322851</v>
+        <v>42743.92446345339</v>
       </c>
       <c r="B111" t="n">
-        <v>4.50359962737085e+16</v>
+        <v>4.503599628987017e+16</v>
       </c>
       <c r="C111" t="n">
         <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>1690244</v>
+        <v>513723</v>
       </c>
       <c r="E111" t="n">
-        <v>1665</v>
+        <v>489</v>
       </c>
       <c r="F111" t="n">
-        <v>1831564</v>
+        <v>1400347</v>
       </c>
       <c r="G111" t="n">
-        <v>2785298</v>
+        <v>3635424</v>
       </c>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:39">
       <c r="A112" s="12" t="n">
-        <v>42740.60313968173</v>
+        <v>42743.92453987823</v>
       </c>
       <c r="B112" t="n">
-        <v>4.50359962737085e+16</v>
+        <v>4.503599628987018e+16</v>
       </c>
       <c r="C112" t="n">
         <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>1752810</v>
+        <v>567024</v>
       </c>
       <c r="E112" t="n">
-        <v>1730</v>
+        <v>533</v>
       </c>
       <c r="F112" t="n">
-        <v>1831564</v>
+        <v>1400347</v>
       </c>
       <c r="G112" t="n">
-        <v>2913528</v>
+        <v>3889554</v>
       </c>
       <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:39">
-      <c r="A113" s="12" t="n">
-        <v>42740.6031669529</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4.503599627370851e+16</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1674819</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1651</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1831563</v>
-      </c>
-      <c r="G113" t="n">
-        <v>29346</v>
-      </c>
-      <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:39">
-      <c r="A114" s="12" t="n">
-        <v>42740.60319330234</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4.503599627370851e+16</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1620042</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1597</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1831563</v>
-      </c>
-      <c r="G114" t="n">
-        <v>2772136</v>
-      </c>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:39">
-      <c r="A115" s="12" t="n">
-        <v>42740.60322081183</v>
-      </c>
-      <c r="B115" t="n">
-        <v>4.503599627370852e+16</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1652632</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1629</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1831563</v>
-      </c>
-      <c r="G115" t="n">
-        <v>3173284</v>
-      </c>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:39">
-      <c r="A116" s="12" t="n">
-        <v>42740.60324693256</v>
-      </c>
-      <c r="B116" t="n">
-        <v>4.503599627370853e+16</v>
-      </c>
-      <c r="C116" t="n">
-        <v>5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1739570</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1716</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1831563</v>
-      </c>
-      <c r="G116" t="n">
-        <v>3080940</v>
-      </c>
-      <c r="H116" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:39">
-      <c r="A117" s="12" t="n">
-        <v>42740.60327436418</v>
-      </c>
-      <c r="B117" t="n">
-        <v>4.503599627370853e+16</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1885196</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1843</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="G117" t="n">
-        <v>14577246</v>
-      </c>
-      <c r="H117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:39">
-      <c r="A118" s="12" t="n">
-        <v>42740.60330308098</v>
-      </c>
-      <c r="B118" t="n">
-        <v>4.503599627370854e+16</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1682543</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1638</v>
-      </c>
-      <c r="F118" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="G118" t="n">
-        <v>12291270</v>
-      </c>
-      <c r="H118" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:39">
-      <c r="A119" s="12" t="n">
-        <v>42740.60333011221</v>
-      </c>
-      <c r="B119" t="n">
-        <v>4.503599627370854e+16</v>
-      </c>
-      <c r="C119" t="n">
-        <v>5</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1705002</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1667</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12305904</v>
-      </c>
-      <c r="H119" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:39">
-      <c r="A120" s="12" t="n">
-        <v>42740.6033570906</v>
-      </c>
-      <c r="B120" t="n">
-        <v>4.503599627370855e+16</v>
-      </c>
-      <c r="C120" t="n">
-        <v>5</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1727354</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1676</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12028158</v>
-      </c>
-      <c r="H120" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="121" spans="1:39">
-      <c r="A121" s="12" t="n">
-        <v>42740.6033845815</v>
-      </c>
-      <c r="B121" t="n">
-        <v>4.503599627370856e+16</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1736258</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1699</v>
-      </c>
-      <c r="F121" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="G121" t="n">
-        <v>11181456</v>
-      </c>
-      <c r="H121" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:39">
-      <c r="A122" s="12" t="n">
-        <v>42740.60341200971</v>
-      </c>
-      <c r="B122" t="n">
-        <v>4.503599627370856e+16</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1739467</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1700</v>
-      </c>
-      <c r="F122" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12349800</v>
-      </c>
-      <c r="H122" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="123" spans="1:39">
-      <c r="A123" s="12" t="n">
-        <v>42740.6034397702</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.503599627370857e+16</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1746266</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1700</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12308484</v>
-      </c>
-      <c r="H123" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="1:39">
-      <c r="A124" s="12" t="n">
-        <v>42740.60346706689</v>
-      </c>
-      <c r="B124" t="n">
-        <v>4.503599627370858e+16</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1702953</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1663</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1080687</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12664554</v>
-      </c>
-      <c r="H124" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6434,7 +8658,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -6444,7 +8668,7 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2" t="n"/>
       <c r="V5" s="2" t="n"/>
@@ -6452,19 +8676,19 @@
     </row>
     <row r="8" spans="1:39">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="8" t="n"/>
       <c r="L8" s="8" t="n"/>
@@ -6529,31 +8753,31 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" s="8" t="n"/>
       <c r="AC13" s="8" t="n"/>
@@ -6561,31 +8785,31 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" t="n">
-        <v>454880025</v>
+        <v>11382838</v>
       </c>
       <c r="B14" t="n">
-        <v>4299312278</v>
+        <v>208268373</v>
       </c>
       <c r="C14" t="n">
-        <v>5404</v>
+        <v>1351</v>
       </c>
       <c r="D14" t="n">
-        <v>1110093398</v>
+        <v>53717231</v>
       </c>
       <c r="E14" t="n">
-        <v>302392551</v>
+        <v>7560552</v>
       </c>
       <c r="F14" t="n">
-        <v>1713301464</v>
+        <v>42054359</v>
       </c>
       <c r="G14" t="n">
-        <v>1632</v>
+        <v>408</v>
       </c>
       <c r="H14" t="n">
-        <v>28203512</v>
+        <v>706870</v>
       </c>
       <c r="I14" t="n">
-        <v>7908190264</v>
+        <v>323691982</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -6655,25 +8879,25 @@
     </row>
     <row r="100" spans="1:39">
       <c r="A100" s="11" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H100" s="11" t="n"/>
       <c r="K100" s="8" t="n"/>
@@ -6847,4 +9071,2211 @@
   </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="29"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="5" min="5" width="29"/>
+    <col customWidth="1" max="6" min="6" width="14"/>
+    <col customWidth="1" max="7" min="7" width="8"/>
+    <col customWidth="1" max="8" min="8" width="9"/>
+    <col customWidth="1" max="9" min="9" width="13"/>
+    <col customWidth="1" max="11" min="11" width="20"/>
+    <col customWidth="1" max="12" min="12" width="29"/>
+    <col customWidth="1" max="13" min="13" width="20"/>
+    <col customWidth="1" max="14" min="14" width="20"/>
+    <col customWidth="1" max="15" min="15" width="29"/>
+    <col customWidth="1" max="16" min="16" width="14"/>
+    <col customWidth="1" max="17" min="17" width="8"/>
+    <col customWidth="1" max="21" min="21" width="20"/>
+    <col customWidth="1" max="22" min="22" width="29"/>
+    <col customWidth="1" max="23" min="23" width="20"/>
+    <col customWidth="1" max="24" min="24" width="22"/>
+    <col customWidth="1" max="25" min="25" width="29"/>
+    <col customWidth="1" max="26" min="26" width="14"/>
+    <col customWidth="1" max="27" min="27" width="8"/>
+    <col customWidth="1" max="31" min="31" width="22"/>
+    <col customWidth="1" max="32" min="32" width="29"/>
+    <col customWidth="1" max="33" min="33" width="22"/>
+    <col customWidth="1" max="34" min="34" width="22"/>
+    <col customWidth="1" max="35" min="35" width="29"/>
+    <col customWidth="1" max="36" min="36" width="14"/>
+    <col customWidth="1" max="37" min="37" width="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="4">
+        <f>AVERAGE(D101:D2000)</f>
+        <v/>
+      </c>
+      <c r="B9" s="4">
+        <f>AVERAGE(E101:E2000)</f>
+        <v/>
+      </c>
+      <c r="C9" s="4">
+        <f>AVERAGE(F101:F2000)</f>
+        <v/>
+      </c>
+      <c r="D9" s="4">
+        <f>AVERAGE(G101:G2000)</f>
+        <v/>
+      </c>
+      <c r="E9" s="4">
+        <f>COUNT(D101:D2000)</f>
+        <v/>
+      </c>
+      <c r="K9" s="4">
+        <f>AVERAGE(N101:N2000)</f>
+        <v/>
+      </c>
+      <c r="L9" s="4">
+        <f>AVERAGE(O101:O2000)</f>
+        <v/>
+      </c>
+      <c r="M9" s="4">
+        <f>AVERAGE(P101:P2000)</f>
+        <v/>
+      </c>
+      <c r="N9" s="4">
+        <f>AVERAGE(Q101:Q2000)</f>
+        <v/>
+      </c>
+      <c r="O9" s="4">
+        <f>COUNT(N101:N2000)</f>
+        <v/>
+      </c>
+      <c r="U9" s="4">
+        <f>AVERAGE(X101:X2000)</f>
+        <v/>
+      </c>
+      <c r="V9" s="4">
+        <f>AVERAGE(Y101:Y2000)</f>
+        <v/>
+      </c>
+      <c r="W9" s="4">
+        <f>AVERAGE(Z101:Z2000)</f>
+        <v/>
+      </c>
+      <c r="X9" s="4">
+        <f>AVERAGE(AA101:AA2000)</f>
+        <v/>
+      </c>
+      <c r="Y9" s="4">
+        <f>COUNT(X101:X2000)</f>
+        <v/>
+      </c>
+      <c r="AE9" s="4">
+        <f>AVERAGE(AH101:AH2000)</f>
+        <v/>
+      </c>
+      <c r="AF9" s="4">
+        <f>AVERAGE(AI101:AI2000)</f>
+        <v/>
+      </c>
+      <c r="AG9" s="4">
+        <f>AVERAGE(AJ101:AJ2000)</f>
+        <v/>
+      </c>
+      <c r="AH9" s="4">
+        <f>AVERAGE(AK101:AK2000)</f>
+        <v/>
+      </c>
+      <c r="AI9" s="4">
+        <f>COUNT(AH101:AH2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10">
+        <f>DBD!A9-A9</f>
+        <v/>
+      </c>
+      <c r="B10">
+        <f>DBD!B9-B9</f>
+        <v/>
+      </c>
+      <c r="C10">
+        <f>DBD!C9-C9</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <f>DBD!D9-D9</f>
+        <v/>
+      </c>
+      <c r="K10">
+        <f>DBD!K9-K9</f>
+        <v/>
+      </c>
+      <c r="L10">
+        <f>DBD!L9-L9</f>
+        <v/>
+      </c>
+      <c r="M10">
+        <f>DBD!M9-M9</f>
+        <v/>
+      </c>
+      <c r="N10">
+        <f>DBD!N9-N9</f>
+        <v/>
+      </c>
+      <c r="U10">
+        <f>DBD!U9-U9</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>DBD!V9-V9</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>DBD!W9-W9</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>DBD!X9-X9</f>
+        <v/>
+      </c>
+      <c r="AE10">
+        <f>DBD!AE9-AE9</f>
+        <v/>
+      </c>
+      <c r="AF10">
+        <f>DBD!AF9-AF9</f>
+        <v/>
+      </c>
+      <c r="AG10">
+        <f>DBD!AG9-AG9</f>
+        <v/>
+      </c>
+      <c r="AH10">
+        <f>DBD!AH9-AH9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="8" t="n"/>
+      <c r="AC13" s="8" t="n"/>
+      <c r="AM13" s="8" t="n"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="n">
+        <v>11382838</v>
+      </c>
+      <c r="B14" t="n">
+        <v>208268379</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D14" t="n">
+        <v>53717231</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7560552</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42054359</v>
+      </c>
+      <c r="G14" t="n">
+        <v>408</v>
+      </c>
+      <c r="H14" t="n">
+        <v>706870</v>
+      </c>
+      <c r="I14" t="n">
+        <v>323691988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15">
+        <f>DBD!A14-A14</f>
+        <v/>
+      </c>
+      <c r="B15">
+        <f>DBD!B14-B14</f>
+        <v/>
+      </c>
+      <c r="C15">
+        <f>DBD!C14-C14</f>
+        <v/>
+      </c>
+      <c r="D15">
+        <f>DBD!D14-D14</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>DBD!E14-E14</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>DBD!F14-F14</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>DBD!G14-G14</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>DBD!H14-H14</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>DBD!I14-I14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="K17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="10" t="n"/>
+      <c r="U17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="10" t="n"/>
+      <c r="AE17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF17" s="10" t="n"/>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="K18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="3" t="n"/>
+      <c r="U18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y18" s="3" t="n"/>
+      <c r="AE18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI18" s="3" t="n"/>
+    </row>
+    <row r="19" spans="1:39">
+      <c r="K19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="12" t="n">
+        <v>42743.92382654801</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.50359962898701e+16</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>903025</v>
+      </c>
+      <c r="P19" t="n">
+        <v>885</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3486970</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1590854</v>
+      </c>
+      <c r="S19" t="s">
+        <v>36</v>
+      </c>
+      <c r="U19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="12" t="n">
+        <v>42743.92398461892</v>
+      </c>
+      <c r="W19" t="n">
+        <v>4.503599628987012e+16</v>
+      </c>
+      <c r="X19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>695467</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>686</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3421434.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1292630</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF19" s="12" t="n">
+        <v>42743.92412148016</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>4.503599628987013e+16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>357303</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>339</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1400347</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>3370248</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39">
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="U20" t="s">
+        <v>251</v>
+      </c>
+      <c r="V20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39">
+      <c r="K21" t="s">
+        <v>252</v>
+      </c>
+      <c r="L21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="X21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39">
+      <c r="K22" t="s">
+        <v>254</v>
+      </c>
+      <c r="L22" t="s">
+        <v>255</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="U22" t="s">
+        <v>256</v>
+      </c>
+      <c r="V22" t="s">
+        <v>257</v>
+      </c>
+      <c r="X22" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39">
+      <c r="K23" t="s">
+        <v>258</v>
+      </c>
+      <c r="L23" t="s">
+        <v>259</v>
+      </c>
+      <c r="M23" t="s">
+        <v>260</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="X23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39">
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39">
+      <c r="N25" t="s">
+        <v>262</v>
+      </c>
+      <c r="U25" t="s">
+        <v>263</v>
+      </c>
+      <c r="V25" t="s">
+        <v>264</v>
+      </c>
+      <c r="W25" t="s">
+        <v>265</v>
+      </c>
+      <c r="X25" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39">
+      <c r="N26" t="s">
+        <v>177</v>
+      </c>
+      <c r="U26" t="s">
+        <v>266</v>
+      </c>
+      <c r="V26" t="s">
+        <v>183</v>
+      </c>
+      <c r="X26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39">
+      <c r="N27" t="s">
+        <v>181</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39">
+      <c r="X28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39">
+      <c r="U29" t="s">
+        <v>269</v>
+      </c>
+      <c r="V29" t="s">
+        <v>270</v>
+      </c>
+      <c r="W29" t="s">
+        <v>271</v>
+      </c>
+      <c r="X29" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39">
+      <c r="X30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39">
+      <c r="X31" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39">
+      <c r="X32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39">
+      <c r="X33" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39">
+      <c r="X34" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39">
+      <c r="X35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39">
+      <c r="AH36" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39">
+      <c r="AH37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39">
+      <c r="AE38" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39">
+      <c r="AH39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39">
+      <c r="AH40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39">
+      <c r="AE41" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39">
+      <c r="AH42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39">
+      <c r="AH43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39">
+      <c r="AH44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39">
+      <c r="AE45" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39">
+      <c r="AH46" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39">
+      <c r="AE47" t="s">
+        <v>287</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>288</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>289</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39">
+      <c r="AH48" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39">
+      <c r="AH49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39">
+      <c r="AH50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39">
+      <c r="AE51" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39">
+      <c r="AH52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39">
+      <c r="AH53" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39">
+      <c r="AH54" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="AE55" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39">
+      <c r="AH56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39">
+      <c r="AE57" t="s">
+        <v>296</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39">
+      <c r="AH58" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="AH59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39">
+      <c r="AH60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39">
+      <c r="AH61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39">
+      <c r="AE62" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39">
+      <c r="AH63" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39">
+      <c r="AH64" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39">
+      <c r="A99" t="n">
+        <v>6</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39">
+      <c r="A100" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="11" t="n"/>
+      <c r="K100" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L100" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="N100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R100" s="11" t="n"/>
+      <c r="U100" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="V100" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="W100" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="X100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB100" s="11" t="n"/>
+      <c r="AE100" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF100" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG100" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL100" s="11" t="n"/>
+    </row>
+    <row r="101" spans="1:39">
+      <c r="A101" s="12" t="n">
+        <v>42743.92375282144</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.503599628987009e+16</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>712691</v>
+      </c>
+      <c r="E101" t="n">
+        <v>699</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3486970</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1568002</v>
+      </c>
+      <c r="H101" t="s">
+        <v>36</v>
+      </c>
+      <c r="K101" s="12" t="n">
+        <v>42743.92375282144</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4.503599628987009e+16</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="n">
+        <v>712691</v>
+      </c>
+      <c r="O101" t="n">
+        <v>699</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3486970</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1568002</v>
+      </c>
+      <c r="R101" t="s">
+        <v>36</v>
+      </c>
+      <c r="U101" s="12" t="n">
+        <v>42743.92391352899</v>
+      </c>
+      <c r="V101" t="n">
+        <v>4.503599628987011e+16</v>
+      </c>
+      <c r="W101" t="n">
+        <v>5</v>
+      </c>
+      <c r="X101" t="n">
+        <v>763020</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>743</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>3421434</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>1345622</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE101" s="12" t="n">
+        <v>42743.92405505455</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>4.503599628987013e+16</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>412015</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>390</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1400347</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>3782748</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39">
+      <c r="A102" s="12" t="n">
+        <v>42743.92382654801</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.50359962898701e+16</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>903025</v>
+      </c>
+      <c r="E102" t="n">
+        <v>885</v>
+      </c>
+      <c r="F102" t="n">
+        <v>3486970</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1590854</v>
+      </c>
+      <c r="H102" t="s">
+        <v>36</v>
+      </c>
+      <c r="K102" s="12" t="n">
+        <v>42743.92382654801</v>
+      </c>
+      <c r="L102" t="n">
+        <v>4.50359962898701e+16</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>903025</v>
+      </c>
+      <c r="O102" t="n">
+        <v>885</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3486970</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1590854</v>
+      </c>
+      <c r="R102" t="s">
+        <v>36</v>
+      </c>
+      <c r="U102" s="12" t="n">
+        <v>42743.92398461892</v>
+      </c>
+      <c r="V102" t="n">
+        <v>4.503599628987012e+16</v>
+      </c>
+      <c r="W102" t="n">
+        <v>5</v>
+      </c>
+      <c r="X102" t="n">
+        <v>695467</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>686</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>3421434</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1292630</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE102" s="12" t="n">
+        <v>42743.92412148016</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>4.503599628987013e+16</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>357303</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>339</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1400347</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>3370248</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39">
+      <c r="A103" s="12" t="n">
+        <v>42743.92391352899</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.503599628987011e+16</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>763020</v>
+      </c>
+      <c r="E103" t="n">
+        <v>743</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3421434</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1345622</v>
+      </c>
+      <c r="H103" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39">
+      <c r="A104" s="12" t="n">
+        <v>42743.92398461892</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.503599628987012e+16</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>695467</v>
+      </c>
+      <c r="E104" t="n">
+        <v>686</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3421434</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1292630</v>
+      </c>
+      <c r="H104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:39">
+      <c r="A105" s="12" t="n">
+        <v>42743.92405505455</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.503599628987013e+16</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>412015</v>
+      </c>
+      <c r="E105" t="n">
+        <v>390</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1400347</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3782748</v>
+      </c>
+      <c r="H105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39">
+      <c r="A106" s="12" t="n">
+        <v>42743.92412148016</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.503599628987013e+16</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>357303</v>
+      </c>
+      <c r="E106" t="n">
+        <v>339</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1400347</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3370248</v>
+      </c>
+      <c r="H106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A9">
+    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule dxfId="0" operator="greaterThan" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="5" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="6" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule dxfId="0" operator="greaterThan" priority="7" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="8" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="9" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule dxfId="0" operator="greaterThan" priority="10" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="11" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="12" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule dxfId="0" operator="greaterThan" priority="13" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$K9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="14" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$K9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="15" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$K9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule dxfId="0" operator="greaterThan" priority="16" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$L9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="17" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$L9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="18" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$L9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule dxfId="0" operator="greaterThan" priority="19" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$M9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="20" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$M9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="21" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$M9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule dxfId="0" operator="greaterThan" priority="22" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$N9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="23" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$N9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="24" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$N9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule dxfId="0" operator="greaterThan" priority="25" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$U9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="26" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$U9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="27" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$U9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9">
+    <cfRule dxfId="0" operator="greaterThan" priority="28" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$V9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="29" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$V9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="30" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$V9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9">
+    <cfRule dxfId="0" operator="greaterThan" priority="31" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$W9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="32" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$W9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="33" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$W9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9">
+    <cfRule dxfId="0" operator="greaterThan" priority="34" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$X9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="35" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$X9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="36" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$X9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE9">
+    <cfRule dxfId="0" operator="greaterThan" priority="37" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AE9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="38" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AE9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="39" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AE9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF9">
+    <cfRule dxfId="0" operator="greaterThan" priority="40" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AF9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="41" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AF9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="42" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AF9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule dxfId="0" operator="greaterThan" priority="43" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AG9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="44" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AG9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="45" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AG9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH9">
+    <cfRule dxfId="0" operator="greaterThan" priority="46" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AH9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="47" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AH9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="48" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$AH9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule dxfId="0" operator="greaterThan" priority="49" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="50" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="51" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule dxfId="0" operator="greaterThan" priority="52" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="53" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="54" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule dxfId="0" operator="greaterThan" priority="55" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="56" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="57" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule dxfId="0" operator="greaterThan" priority="58" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="59" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="60" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule dxfId="0" operator="greaterThan" priority="61" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="62" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="63" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule dxfId="0" operator="greaterThan" priority="64" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="65" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="66" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule dxfId="0" operator="greaterThan" priority="67" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="68" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="69" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule dxfId="0" operator="greaterThan" priority="70" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="71" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="72" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule dxfId="0" operator="greaterThan" priority="73" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="74" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="75" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:ZZ99">
+    <cfRule dxfId="3" operator="containsText" priority="76" text="&gt; JOIN" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("&gt; JOIN",A19)))</formula>
+    </cfRule>
+    <cfRule dxfId="4" operator="containsText" priority="77" text="Filter" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Filter",A19)))</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="containsText" priority="78" text="Join Cond" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Join Cond",A19)))</formula>
+    </cfRule>
+    <cfRule dxfId="5" operator="containsText" priority="79" text="Projection:" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Projection:",A19)))</formula>
+    </cfRule>
+    <cfRule dxfId="6" operator="containsText" priority="80" text="SELECT" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("SELECT",A19)))</formula>
+    </cfRule>
+    <cfRule dxfId="7" operator="containsText" priority="81" text="SORT [" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("SORT [",A19)))</formula>
+    </cfRule>
+    <cfRule dxfId="0" operator="containsText" priority="82" text="&gt; GROUPBY" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("&gt; GROUPBY",A19)))</formula>
+    </cfRule>
+    <cfRule dxfId="8" operator="containsText" priority="83" text="Outer -&gt; STORAGE" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Outer -&gt; STORAGE",A19)))</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="containsText" priority="84" text="Inner -&gt; STORAGE" type="containsText">
+      <formula>NOT(ISERROR(SEARCH("Inner -&gt; STORAGE",A19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="29"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="5" min="5" width="29"/>
+    <col customWidth="1" max="6" min="6" width="14"/>
+    <col customWidth="1" max="7" min="7" width="8"/>
+    <col customWidth="1" max="8" min="8" width="9"/>
+    <col customWidth="1" max="9" min="9" width="13"/>
+    <col customWidth="1" max="11" min="11" width="20"/>
+    <col customWidth="1" max="12" min="12" width="29"/>
+    <col customWidth="1" max="13" min="13" width="20"/>
+    <col customWidth="1" max="14" min="14" width="20"/>
+    <col customWidth="1" max="15" min="15" width="29"/>
+    <col customWidth="1" max="16" min="16" width="14"/>
+    <col customWidth="1" max="17" min="17" width="8"/>
+    <col customWidth="1" max="21" min="21" width="20"/>
+    <col customWidth="1" max="22" min="22" width="29"/>
+    <col customWidth="1" max="23" min="23" width="20"/>
+    <col customWidth="1" max="24" min="24" width="22"/>
+    <col customWidth="1" max="25" min="25" width="29"/>
+    <col customWidth="1" max="26" min="26" width="14"/>
+    <col customWidth="1" max="27" min="27" width="8"/>
+    <col customWidth="1" max="31" min="31" width="22"/>
+    <col customWidth="1" max="32" min="32" width="29"/>
+    <col customWidth="1" max="33" min="33" width="22"/>
+    <col customWidth="1" max="34" min="34" width="22"/>
+    <col customWidth="1" max="35" min="35" width="29"/>
+    <col customWidth="1" max="36" min="36" width="14"/>
+    <col customWidth="1" max="37" min="37" width="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="2" t="n"/>
+      <c r="V5" s="2" t="n"/>
+      <c r="AF5" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="8" t="n"/>
+      <c r="L8" s="8" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="8" t="n"/>
+      <c r="O8" s="8" t="n"/>
+      <c r="U8" s="8" t="n"/>
+      <c r="V8" s="8" t="n"/>
+      <c r="W8" s="8" t="n"/>
+      <c r="X8" s="8" t="n"/>
+      <c r="Y8" s="8" t="n"/>
+      <c r="AE8" s="8" t="n"/>
+      <c r="AF8" s="8" t="n"/>
+      <c r="AG8" s="8" t="n"/>
+      <c r="AH8" s="8" t="n"/>
+      <c r="AI8" s="8" t="n"/>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="4">
+        <f>AVERAGE(D101:D2000)</f>
+        <v/>
+      </c>
+      <c r="B9" s="4">
+        <f>AVERAGE(E101:E2000)</f>
+        <v/>
+      </c>
+      <c r="C9" s="4">
+        <f>AVERAGE(F101:F2000)</f>
+        <v/>
+      </c>
+      <c r="D9" s="4">
+        <f>AVERAGE(G101:G2000)</f>
+        <v/>
+      </c>
+      <c r="E9" s="4">
+        <f>COUNT(D101:D2000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10">
+        <f>DBD!A9-A9</f>
+        <v/>
+      </c>
+      <c r="B10">
+        <f>DBD!B9-B9</f>
+        <v/>
+      </c>
+      <c r="C10">
+        <f>DBD!C9-C9</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <f>DBD!D9-D9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="8" t="n"/>
+      <c r="AC13" s="8" t="n"/>
+      <c r="AM13" s="8" t="n"/>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" t="n">
+        <v>11382838</v>
+      </c>
+      <c r="B14" t="n">
+        <v>208268379</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1351</v>
+      </c>
+      <c r="D14" t="n">
+        <v>53717231</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7560552</v>
+      </c>
+      <c r="F14" t="n">
+        <v>42054359</v>
+      </c>
+      <c r="G14" t="n">
+        <v>408</v>
+      </c>
+      <c r="H14" t="n">
+        <v>706870</v>
+      </c>
+      <c r="I14" t="n">
+        <v>323691988</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15">
+        <f>DBD!A14-A14</f>
+        <v/>
+      </c>
+      <c r="B15">
+        <f>DBD!B14-B14</f>
+        <v/>
+      </c>
+      <c r="C15">
+        <f>DBD!C14-C14</f>
+        <v/>
+      </c>
+      <c r="D15">
+        <f>DBD!D14-D14</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>DBD!E14-E14</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>DBD!F14-F14</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>DBD!G14-G14</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>DBD!H14-H14</f>
+        <v/>
+      </c>
+      <c r="I15">
+        <f>DBD!I14-I14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:39">
+      <c r="K17" s="2" t="n"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="AE17" s="2" t="n"/>
+    </row>
+    <row r="18" spans="1:39">
+      <c r="K18" s="8" t="n"/>
+      <c r="L18" s="8" t="n"/>
+      <c r="M18" s="8" t="n"/>
+      <c r="N18" s="8" t="n"/>
+      <c r="O18" s="8" t="n"/>
+      <c r="U18" s="8" t="n"/>
+      <c r="V18" s="8" t="n"/>
+      <c r="W18" s="8" t="n"/>
+      <c r="X18" s="8" t="n"/>
+      <c r="Y18" s="8" t="n"/>
+      <c r="AE18" s="8" t="n"/>
+      <c r="AF18" s="8" t="n"/>
+      <c r="AG18" s="8" t="n"/>
+      <c r="AH18" s="8" t="n"/>
+      <c r="AI18" s="8" t="n"/>
+    </row>
+    <row r="99" spans="1:39">
+      <c r="A99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39">
+      <c r="A100" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="11" t="n"/>
+      <c r="K100" s="8" t="n"/>
+      <c r="L100" s="8" t="n"/>
+      <c r="M100" s="8" t="n"/>
+      <c r="N100" s="8" t="n"/>
+      <c r="O100" s="8" t="n"/>
+      <c r="P100" s="8" t="n"/>
+      <c r="Q100" s="8" t="n"/>
+      <c r="R100" s="8" t="n"/>
+      <c r="U100" s="8" t="n"/>
+      <c r="V100" s="8" t="n"/>
+      <c r="W100" s="8" t="n"/>
+      <c r="X100" s="8" t="n"/>
+      <c r="Y100" s="8" t="n"/>
+      <c r="Z100" s="8" t="n"/>
+      <c r="AA100" s="8" t="n"/>
+      <c r="AB100" s="8" t="n"/>
+      <c r="AE100" s="8" t="n"/>
+      <c r="AF100" s="8" t="n"/>
+      <c r="AG100" s="8" t="n"/>
+      <c r="AH100" s="8" t="n"/>
+      <c r="AI100" s="8" t="n"/>
+      <c r="AJ100" s="8" t="n"/>
+      <c r="AK100" s="8" t="n"/>
+      <c r="AL100" s="8" t="n"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A9">
+    <cfRule dxfId="0" operator="greaterThan" priority="1" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="2" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule dxfId="0" operator="greaterThan" priority="4" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="5" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="6" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule dxfId="0" operator="greaterThan" priority="7" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="8" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="9" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule dxfId="0" operator="greaterThan" priority="10" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="11" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="12" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule dxfId="0" operator="greaterThan" priority="13" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="14" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="15" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$A14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule dxfId="0" operator="greaterThan" priority="16" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="17" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="18" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$B14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule dxfId="0" operator="greaterThan" priority="19" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="20" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="21" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$C14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule dxfId="0" operator="greaterThan" priority="22" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="23" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="24" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$D14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule dxfId="0" operator="greaterThan" priority="25" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="26" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="27" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule dxfId="0" operator="greaterThan" priority="28" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="29" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="30" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$F14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule dxfId="0" operator="greaterThan" priority="31" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="32" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="33" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule dxfId="0" operator="greaterThan" priority="34" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="35" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="36" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule dxfId="0" operator="greaterThan" priority="37" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I14</formula>
+    </cfRule>
+    <cfRule dxfId="1" operator="lessThan" priority="38" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I14</formula>
+    </cfRule>
+    <cfRule dxfId="2" operator="equal" priority="39" stopIfTrue="1" type="cellIs">
+      <formula>DBD!$I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>